--- a/src/raw_data/TG_errors.xlsx
+++ b/src/raw_data/TG_errors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589CF204-69DD-434D-A00A-C72A61240D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA1C54-DC22-4F4F-92F3-EFD22F7F1A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="1020" windowWidth="16880" windowHeight="21080" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
+    <workbookView xWindow="17180" yWindow="1020" windowWidth="16880" windowHeight="21080" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$I$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$I$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="253">
   <si>
     <t>Error_ID</t>
   </si>
@@ -768,6 +768,60 @@
   </si>
   <si>
     <t>column_affected</t>
+  </si>
+  <si>
+    <t>Contains variation of BŠ</t>
+  </si>
+  <si>
+    <t>Contains house number</t>
+  </si>
+  <si>
+    <t>No space after full stop</t>
+  </si>
+  <si>
+    <t>Only numbers</t>
+  </si>
+  <si>
+    <t>Starts with number</t>
+  </si>
+  <si>
+    <t>More than 2 commas</t>
+  </si>
+  <si>
+    <t>Cannot contain digit at the end</t>
+  </si>
+  <si>
+    <t>Street name foreign address but have slovenia as country</t>
+  </si>
+  <si>
+    <t>No house number</t>
+  </si>
+  <si>
+    <t>Leading 0</t>
+  </si>
+  <si>
+    <t>Spacing between components</t>
+  </si>
+  <si>
+    <t>Contains roman numerals</t>
+  </si>
+  <si>
+    <t>Contains digits</t>
+  </si>
+  <si>
+    <t>4403</t>
+  </si>
+  <si>
+    <t>4404</t>
+  </si>
+  <si>
+    <t>4405</t>
+  </si>
+  <si>
+    <t>4406</t>
+  </si>
+  <si>
+    <t>More than 4</t>
   </si>
 </sst>
 </file>
@@ -868,7 +922,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -911,6 +965,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1247,12 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1300,39 +1354,39 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="102" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>2101</v>
+        <v>4101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>141</v>
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F2" s="3"/>
       <c r="J2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2102</v>
+        <v>4101</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>31</v>
@@ -1342,918 +1396,942 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>2102</v>
+        <v>4102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2103</v>
+        <v>4201</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="J5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>2103</v>
+        <v>4201</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>105</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="3"/>
       <c r="J6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>2104</v>
+        <v>4202</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>75</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
       </c>
       <c r="F7" s="3"/>
       <c r="J7">
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>2105</v>
+        <v>4301</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>105</v>
+        <v>152</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J8">
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>2106</v>
+        <v>4203</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="3" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J9">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>4201</v>
+        <v>3105</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="J10">
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>4201</v>
-      </c>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>125</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="F11" s="3"/>
       <c r="J11">
         <v>0.05</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>4202</v>
+        <v>2105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J12">
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>4203</v>
+        <v>1101</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>94</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>4103</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>4203</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="J14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>4103</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>4104</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>4203</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="3">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>4204</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="J16">
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>4204</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>138</v>
+        <v>4104</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
-        <v>34</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="J17">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>4205</v>
+        <v>4104</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J18">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>4206</v>
+        <v>4105</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="3">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F19" s="3"/>
       <c r="J19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>4207</v>
+        <v>4106</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>128</v>
+      </c>
       <c r="J20">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>4207</v>
+        <v>4107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F21" s="3"/>
       <c r="J21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>4207</v>
+        <v>1201</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="J22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>4208</v>
+        <v>2104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="3">
-        <v>9</v>
+        <v>104</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="F23" s="3"/>
       <c r="J23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>118</v>
+      <c r="D24" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="F24" s="3"/>
       <c r="J24">
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>1102</v>
+        <v>4108</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="J25">
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>1103</v>
+        <v>4109</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>96</v>
+        <v>11</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J26">
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>1104</v>
+        <v>4109</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>145</v>
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J27">
         <v>0.05</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>1105</v>
+        <v>4109</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J28">
         <v>0.01</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>1106</v>
+        <v>4109</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="J29">
         <v>0.03</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>3101</v>
+      </c>
       <c r="B30" s="3" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="F30" s="3"/>
       <c r="J30">
         <v>0.01</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>3101</v>
+        <v>4109</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>155</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J31">
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>3102</v>
+        <v>2103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="J32">
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>3103</v>
+        <v>2103</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="3"/>
       <c r="J33">
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>3104</v>
+        <v>1103</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J34">
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="D35" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="11"/>
       <c r="J35">
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>3105</v>
+        <v>4109</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F36" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="J36">
         <v>0.01</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>3106</v>
+        <v>1202</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="J37">
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>4401</v>
+        <v>4302</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>31</v>
+        <v>70</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1000</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J38">
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>4402</v>
+        <v>4203</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="3">
+        <v>6</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>4101</v>
+        <v>2101</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>31</v>
+        <v>104</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="F40" s="3"/>
       <c r="J40">
         <v>0.05</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>4101</v>
+        <v>4303</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="J41">
         <v>0.05</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>4102</v>
+        <v>4203</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3">
+        <v>34</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>0.03</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>4103</v>
+        <v>4304</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="D43" s="3">
+        <v>231</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="J43">
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>4103</v>
+        <v>2102</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>35</v>
+        <v>104</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F44" s="3"/>
       <c r="J44">
         <v>0.01</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>4104</v>
+        <v>2102</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>36</v>
+        <v>104</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="J45">
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>4104</v>
+        <v>4204</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2261,114 +2339,116 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>4104</v>
+        <v>4204</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3">
         <v>34</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="F47" s="3"/>
       <c r="J47">
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>4105</v>
+        <v>1104</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>39</v>
+        <v>94</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F48" s="3"/>
       <c r="J48">
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>4106</v>
+        <v>3104</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>40</v>
+        <v>107</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="J49">
         <v>0.01</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>4107</v>
+        <v>3104</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>41</v>
+        <v>107</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J50">
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>4108</v>
+        <v>4401</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="J51">
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>4109</v>
       </c>
@@ -2379,10 +2459,10 @@
         <v>11</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>65</v>
@@ -2391,7 +2471,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>4109</v>
       </c>
@@ -2402,10 +2482,10 @@
         <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>65</v>
@@ -2414,345 +2494,318 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>4109</v>
+        <v>1203</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>45</v>
+        <v>98</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F54" s="3"/>
       <c r="J54">
         <v>0.01</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>4109</v>
+        <v>4305</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="D55" s="3">
+        <v>12098</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F55" s="3"/>
       <c r="J55">
         <v>0.01</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>4109</v>
+        <v>4205</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
       <c r="J56">
         <v>0.01</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>4109</v>
+        <v>4206</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7</v>
+      </c>
+      <c r="F57" s="3"/>
       <c r="J57">
         <v>0.01</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F58" s="3"/>
       <c r="J58">
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>4109</v>
+        <v>4306</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="J59">
         <v>0.01</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="J60">
         <v>0.01</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="J61">
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>4112</v>
+        <v>4207</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>131</v>
+        <v>245</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="J62">
         <v>0.01</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>4113</v>
+        <v>4207</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="J63">
         <v>0.01</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>4113</v>
+        <v>4207</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F64" s="3"/>
       <c r="J64">
         <v>0.01</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>4113</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="J65">
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>1201</v>
+        <v>4113</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>101</v>
+        <v>115</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F66" s="3"/>
       <c r="J66">
         <v>0.01</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>1202</v>
+        <v>3107</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="J67">
         <v>0.02</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>1203</v>
+        <v>3102</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="J68">
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>1204</v>
+        <v>2106</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="3" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J69">
         <v>0.03</v>
@@ -2760,65 +2813,57 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>4301</v>
+        <v>1105</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
       <c r="J70">
         <v>0.01</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>4302</v>
+        <v>3106</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
       <c r="J71">
         <v>0.01</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>4303</v>
+        <v>4208</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E72" s="3">
+        <v>9</v>
       </c>
       <c r="F72" s="3"/>
       <c r="J72">
@@ -2827,43 +2872,45 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>4304</v>
+        <v>1106</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="3">
-        <v>231</v>
+        <v>94</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F73" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="J73">
         <v>0.01</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>4305</v>
+        <v>4402</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>152</v>
+        <v>102</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J74">
         <v>0.05</v>
@@ -2871,19 +2918,19 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>4306</v>
+        <v>4113</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="3">
-        <v>12098</v>
+        <v>115</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F75" s="3"/>
       <c r="J75">
@@ -2892,19 +2939,19 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>4307</v>
+        <v>1204</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1000</v>
+        <v>98</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>77</v>
@@ -2913,40 +2960,86 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>3107</v>
+        <v>4307</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I77" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ZIPCODE"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I9">
-      <sortCondition ref="A1:A76"/>
+  <autoFilter ref="A1:I81" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:I77">
+      <sortCondition ref="A1:A81"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="example@gmial.com" xr:uid="{26614BCF-17CC-CC4B-8956-8F6930E60309}"/>
-    <hyperlink ref="E2" r:id="rId2" display="example@gmail.com" xr:uid="{8748665C-4957-DF46-BCAE-78DDC2747FA2}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{C97D70EF-2237-5345-A311-3AAA5FB2604F}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{5452BAFC-13C2-3F47-9997-9E87936810D4}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{26E7AAAB-28B9-3346-B8F0-69E39759EBA8}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{1E86A40A-BC53-844D-A055-9CA50642AB3B}"/>
+    <hyperlink ref="D40" r:id="rId1" display="example@gmial.com" xr:uid="{26614BCF-17CC-CC4B-8956-8F6930E60309}"/>
+    <hyperlink ref="E40" r:id="rId2" display="example@gmail.com" xr:uid="{8748665C-4957-DF46-BCAE-78DDC2747FA2}"/>
+    <hyperlink ref="E32" r:id="rId3" xr:uid="{C97D70EF-2237-5345-A311-3AAA5FB2604F}"/>
+    <hyperlink ref="D33" r:id="rId4" xr:uid="{5452BAFC-13C2-3F47-9997-9E87936810D4}"/>
+    <hyperlink ref="E33" r:id="rId5" xr:uid="{26E7AAAB-28B9-3346-B8F0-69E39759EBA8}"/>
+    <hyperlink ref="E12" r:id="rId6" xr:uid="{1E86A40A-BC53-844D-A055-9CA50642AB3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/raw_data/TG_errors.xlsx
+++ b/src/raw_data/TG_errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAA1C54-DC22-4F4F-92F3-EFD22F7F1A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F54713-F3DD-2042-888F-24CBB9BE2436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="1020" windowWidth="16880" windowHeight="21080" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
+    <workbookView xWindow="17160" yWindow="1020" windowWidth="16880" windowHeight="21080" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$I$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$I$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="253">
   <si>
     <t>Error_ID</t>
   </si>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>here also important to note that the house number cannot just be deleted, because it may be missing in the house_number column</t>
-  </si>
-  <si>
-    <t>not actually duplicates + here also important to note that the house number cannot just be deleted, because it may be missing in the house_number column</t>
   </si>
   <si>
     <t>Ljubljana 1000</t>
@@ -823,12 +820,15 @@
   <si>
     <t>More than 4</t>
   </si>
+  <si>
+    <t>DOE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -879,8 +879,21 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -890,6 +903,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -917,12 +935,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -965,9 +984,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
@@ -1302,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,13 +1348,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1342,30 +1366,30 @@
         <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
-        <v>4101</v>
+        <v>1101</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>31</v>
@@ -1377,63 +1401,65 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>4101</v>
+        <v>1102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>30</v>
+        <v>93</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="J3">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>4102</v>
+        <v>1103</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>93</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>4201</v>
+        <v>1104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F5" s="3"/>
       <c r="J5">
@@ -1442,41 +1468,41 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>4201</v>
+        <v>1105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>93</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="J6">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>4202</v>
+        <v>1106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="J7">
         <v>0.02</v>
@@ -1484,45 +1510,43 @@
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>4301</v>
+        <v>1201</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>152</v>
+        <v>97</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="J8">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>4203</v>
+        <v>1202</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>97</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J9">
         <v>0.01</v>
@@ -1530,154 +1554,144 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>3105</v>
+        <v>1203</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="J10">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3">
+        <v>1204</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>97</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="J11">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12">
         <v>0.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>2105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J12">
-        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>1101</v>
+        <v>2101</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>118</v>
+        <v>103</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="J13">
         <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>4103</v>
+        <v>2101</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>235</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>34</v>
+        <v>103</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14">
-        <v>0.01</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>4103</v>
+        <v>2102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="3"/>
       <c r="J15">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>4104</v>
+        <v>2103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>32</v>
+        <v>105</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="J16">
         <v>0.01</v>
@@ -1685,105 +1699,105 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>4104</v>
+        <v>2103</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="J17">
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>4104</v>
+        <v>2104</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>236</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>36</v>
+        <v>103</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="J18">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>4105</v>
+        <v>2105</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="J19">
         <v>0.01</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>4106</v>
+        <v>2106</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="J20">
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>4107</v>
+        <v>2107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>42</v>
+        <v>103</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="F21" s="3"/>
       <c r="J21">
@@ -1792,376 +1806,348 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>1201</v>
+        <v>3101</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J22">
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>2104</v>
+        <v>3101</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>143</v>
+        <v>106</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="J23">
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>1102</v>
+        <v>3102</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>95</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="J24">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>4108</v>
+        <v>3103</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>238</v>
+        <v>157</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="11"/>
       <c r="J25">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>4109</v>
+        <v>3104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="J26">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>4109</v>
+        <v>3105</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="J27">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>4109</v>
+        <v>3106</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="J28">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>4109</v>
+        <v>3107</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="J29">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>3101</v>
+        <v>3108</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="J30">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>4109</v>
+        <v>4101</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>25</v>
+      <c r="D31" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F31" s="3"/>
       <c r="J31">
         <v>0.01</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>2103</v>
+        <v>4101</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="3"/>
       <c r="J32">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>2103</v>
+        <v>4102</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="J33">
         <v>0.01</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>1103</v>
+        <v>4103</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>96</v>
+        <v>11</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="F34" s="3"/>
       <c r="J34">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>3103</v>
+        <v>4104</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>158</v>
+        <v>235</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="11"/>
+        <v>11</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="J35">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>4109</v>
+        <v>4104</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
       <c r="J36">
         <v>0.01</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>1202</v>
+        <v>4104</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>100</v>
+        <v>11</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J37">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>4302</v>
+        <v>4105</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1000</v>
+        <v>11</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>0.05</v>
@@ -2169,234 +2155,242 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>4203</v>
+        <v>4105</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="3">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J39">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>2101</v>
+        <v>4106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F40" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="J40">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>4303</v>
+        <v>4107</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="J41">
         <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>4203</v>
+        <v>4108</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3">
-        <v>34</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
       <c r="J42">
         <v>0.03</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>4304</v>
+        <v>4109</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="3">
-        <v>231</v>
+        <v>11</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="F43" s="3"/>
       <c r="J43">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>2102</v>
+        <v>4109</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>109</v>
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F44" s="3"/>
       <c r="J44">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>2102</v>
+        <v>4109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="J45">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>4204</v>
+        <v>4109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J46">
         <v>0.01</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>4204</v>
+        <v>4109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>243</v>
+        <v>72</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3">
-        <v>34</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J47">
         <v>0.01</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>1104</v>
+        <v>4109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>145</v>
+        <v>11</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="J48">
         <v>0.01</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>3104</v>
+        <v>4109</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J49">
         <v>0.01</v>
@@ -2404,172 +2398,158 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>3104</v>
+        <v>4109</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="J50">
         <v>0.01</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>4401</v>
+        <v>4110</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>151</v>
+        <v>238</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F51" s="3"/>
       <c r="J51">
         <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>4109</v>
+        <v>4111</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
       <c r="J52">
         <v>0.01</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>4109</v>
+        <v>4112</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
       <c r="J53">
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>1203</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="3"/>
-      <c r="J54">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>4305</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="3">
-        <v>12098</v>
-      </c>
-      <c r="E55" s="3" t="s">
+    <row r="54" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="17">
+        <v>4114</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="J54" s="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="17">
+        <v>4113</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="F55" s="3"/>
-      <c r="J55">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>4205</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="J56">
+      <c r="C55" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="J55" s="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="17">
+        <v>4113</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="17"/>
+      <c r="J56" s="18">
         <v>0.01</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>4206</v>
+        <v>4201</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" s="3">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F57" s="3"/>
       <c r="J57">
@@ -2578,19 +2558,19 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>4110</v>
+        <v>4201</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>239</v>
+        <v>4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F58" s="3"/>
       <c r="J58">
@@ -2599,100 +2579,106 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>4306</v>
+        <v>4202</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>67</v>
+        <v>5</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="E59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>86</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F59" s="3"/>
       <c r="J59">
         <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>4111</v>
+        <v>4203</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J60">
         <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>4112</v>
+        <v>4203</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="J61">
         <v>0.01</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>4207</v>
+        <v>4203</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3">
+        <v>34</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="J62">
         <v>0.01</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>4207</v>
+        <v>4204</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="J63">
         <v>0.01</v>
@@ -2700,19 +2686,17 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>4207</v>
+        <v>4204</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>55</v>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3">
+        <v>34</v>
       </c>
       <c r="F64" s="3"/>
       <c r="J64">
@@ -2721,15 +2705,17 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>4113</v>
+        <v>4205</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D65" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="J65">
@@ -2738,19 +2724,19 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>4113</v>
+        <v>4206</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7</v>
       </c>
       <c r="F66" s="3"/>
       <c r="J66">
@@ -2759,135 +2745,152 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>3107</v>
+        <v>4207</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>107</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="3"/>
       <c r="J67">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>3102</v>
+        <v>4207</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E68" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="J68">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>2106</v>
+        <v>4207</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="3"/>
       <c r="J69">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>1105</v>
+        <v>4208</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>121</v>
+        <v>245</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E70" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" s="3">
+        <v>9</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="J70">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>3106</v>
+        <v>4301</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="J71">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>4208</v>
+        <v>4302</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="E72" s="3">
-        <v>9</v>
-      </c>
-      <c r="F72" s="3"/>
+        <v>1000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="J72">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>1106</v>
+        <v>4303</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>95</v>
+        <v>21</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1000</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="J73">
         <v>0.01</v>
@@ -2895,69 +2898,67 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>4402</v>
+        <v>4304</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>120</v>
+        <v>21</v>
+      </c>
+      <c r="D74" s="3">
+        <v>231</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F74" s="3"/>
       <c r="J74">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>4113</v>
+        <v>4305</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>22</v>
+        <v>251</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>59</v>
+        <v>21</v>
+      </c>
+      <c r="D75" s="3">
+        <v>12098</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F75" s="3"/>
       <c r="J75">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>1204</v>
+        <v>4306</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1000</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J76">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -2977,69 +2978,134 @@
         <v>7</v>
       </c>
       <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B78" t="s">
-        <v>247</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="J77">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>4401</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J78">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>4402</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B79" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>102</v>
+      <c r="F79" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J79">
+        <v>0.03</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="B80" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>127</v>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I81" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:I77">
-      <sortCondition ref="A1:A81"/>
+  <autoFilter ref="A1:I84" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:I83">
+      <sortCondition ref="A1:A84"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D40" r:id="rId1" display="example@gmial.com" xr:uid="{26614BCF-17CC-CC4B-8956-8F6930E60309}"/>
-    <hyperlink ref="E40" r:id="rId2" display="example@gmail.com" xr:uid="{8748665C-4957-DF46-BCAE-78DDC2747FA2}"/>
-    <hyperlink ref="E32" r:id="rId3" xr:uid="{C97D70EF-2237-5345-A311-3AAA5FB2604F}"/>
-    <hyperlink ref="D33" r:id="rId4" xr:uid="{5452BAFC-13C2-3F47-9997-9E87936810D4}"/>
-    <hyperlink ref="E33" r:id="rId5" xr:uid="{26E7AAAB-28B9-3346-B8F0-69E39759EBA8}"/>
-    <hyperlink ref="E12" r:id="rId6" xr:uid="{1E86A40A-BC53-844D-A055-9CA50642AB3B}"/>
+    <hyperlink ref="D21" r:id="rId1" display="example@gmial.com" xr:uid="{26614BCF-17CC-CC4B-8956-8F6930E60309}"/>
+    <hyperlink ref="E21" r:id="rId2" display="example@gmail.com" xr:uid="{8748665C-4957-DF46-BCAE-78DDC2747FA2}"/>
+    <hyperlink ref="E16" r:id="rId3" xr:uid="{C97D70EF-2237-5345-A311-3AAA5FB2604F}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{5452BAFC-13C2-3F47-9997-9E87936810D4}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{26E7AAAB-28B9-3346-B8F0-69E39759EBA8}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{1E86A40A-BC53-844D-A055-9CA50642AB3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3057,12 +3123,12 @@
   <sheetData>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -3072,322 +3138,322 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3421,7 +3487,7 @@
         <v>1101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3429,7 +3495,7 @@
         <v>1102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3437,7 +3503,7 @@
         <v>1103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3453,7 +3519,7 @@
         <v>1105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3461,7 +3527,7 @@
         <v>1106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3469,7 +3535,7 @@
         <v>1201</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3477,7 +3543,7 @@
         <v>1202</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3493,7 +3559,7 @@
         <v>1204</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3501,7 +3567,7 @@
         <v>2101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3517,7 +3583,7 @@
         <v>2103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3525,7 +3591,7 @@
         <v>2104</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3541,7 +3607,7 @@
         <v>2106</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3549,7 +3615,7 @@
         <v>2107</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3557,7 +3623,7 @@
         <v>2108</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3565,7 +3631,7 @@
         <v>3101</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3573,7 +3639,7 @@
         <v>3102</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3581,7 +3647,7 @@
         <v>3103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3589,7 +3655,7 @@
         <v>3104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3613,7 +3679,7 @@
         <v>3107</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3621,7 +3687,7 @@
         <v>3108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3637,7 +3703,7 @@
         <v>4102</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3645,7 +3711,7 @@
         <v>4103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3653,7 +3719,7 @@
         <v>4104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3661,7 +3727,7 @@
         <v>4104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3669,7 +3735,7 @@
         <v>4104</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3677,7 +3743,7 @@
         <v>4105</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3685,7 +3751,7 @@
         <v>4106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3709,7 +3775,7 @@
         <v>4109</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3725,7 +3791,7 @@
         <v>4111</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3733,7 +3799,7 @@
         <v>4112</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3741,7 +3807,7 @@
         <v>4113</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3749,7 +3815,7 @@
         <v>4113</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3765,7 +3831,7 @@
         <v>4113</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3781,7 +3847,7 @@
         <v>4202</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3789,7 +3855,7 @@
         <v>4203</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3797,7 +3863,7 @@
         <v>4203</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3805,7 +3871,7 @@
         <v>4203</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3813,7 +3879,7 @@
         <v>4204</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3821,7 +3887,7 @@
         <v>4204</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3861,7 +3927,7 @@
         <v>4301</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -3877,7 +3943,7 @@
         <v>4303</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -3893,7 +3959,7 @@
         <v>4305</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -3917,7 +3983,7 @@
         <v>4308</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -3933,7 +3999,7 @@
         <v>4402</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/raw_data/TG_errors.xlsx
+++ b/src/raw_data/TG_errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F54713-F3DD-2042-888F-24CBB9BE2436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4F0DE4-3B6E-624C-BC88-88E537A2B392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17160" yWindow="1020" windowWidth="16880" windowHeight="21080" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$I$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$81</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="249">
   <si>
     <t>Error_ID</t>
   </si>
@@ -196,9 +196,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>BŠ 6</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>6/B</t>
   </si>
   <si>
-    <t>Ellerjeva 39</t>
-  </si>
-  <si>
     <t>Trg izgnancev</t>
   </si>
   <si>
@@ -385,13 +379,7 @@
     <t>Correction</t>
   </si>
   <si>
-    <t>STREET_NAME and HOUSE_NUMBER</t>
-  </si>
-  <si>
     <t>street name foreign address but have slovenia as country</t>
-  </si>
-  <si>
-    <t>STREET_NAME and COUNTRY</t>
   </si>
   <si>
     <t>John John</t>
@@ -788,9 +776,6 @@
     <t>Cannot contain digit at the end</t>
   </si>
   <si>
-    <t>Street name foreign address but have slovenia as country</t>
-  </si>
-  <si>
     <t>No house number</t>
   </si>
   <si>
@@ -822,13 +807,16 @@
   </si>
   <si>
     <t>DOE</t>
+  </si>
+  <si>
+    <t>ERROR_MESSAGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -881,19 +869,12 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,11 +884,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -935,13 +911,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -984,14 +959,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
@@ -1326,11 +1296,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31:M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1338,47 +1308,51 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1101</v>
       </c>
@@ -1386,129 +1360,177 @@
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>_xlfn.CONCAT(C2,": ", B2)</f>
+        <v>NAME: Missing Data</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="J2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G2" s="3"/>
+      <c r="K2">
+        <v>0.01</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xlfn.CONCAT("'",A2,"': '",D2,"',")</f>
+        <v>'1101': 'NAME: Missing Data',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D66" si="0">_xlfn.CONCAT(C3,": ", B3)</f>
+        <v>NAME: Unnecessary Spaces</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3">
+        <v>92</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="1">_xlfn.CONCAT("'",A3,"': '",D3,"',")</f>
+        <v>'1102': 'NAME: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NAME: Invalid Characters</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4">
+        <v>92</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="M4" t="str">
+        <f t="shared" si="1"/>
+        <v>'1103': 'NAME: Invalid Characters',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1104</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NAME: Formatting Issue</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="J5">
+      <c r="F5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="K5">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M5" t="str">
+        <f t="shared" si="1"/>
+        <v>'1104': 'NAME: Formatting Issue',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NAME: Duplicates</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6">
+        <v>92</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M6" t="str">
+        <f t="shared" si="1"/>
+        <v>'1105': 'NAME: Duplicates',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>NAME: Two names in one field</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="J7">
+      <c r="G7" s="3"/>
+      <c r="K7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v>'1106': 'NAME: Two names in one field',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1201</v>
       </c>
@@ -1516,107 +1538,147 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>SURNAME: Missing Data</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="J8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+      <c r="K8">
+        <v>0.01</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>'1201': 'SURNAME: Missing Data',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>1202</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>SURNAME: Unnecessary Spaces</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <v>0.01</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>'1202': 'SURNAME: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1203</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>SURNAME: Invalid Characters</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>98</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10">
+        <v>96</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>'1203': 'SURNAME: Invalid Characters',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1204</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>SURNAME: Formatting Issue</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v>'1204': 'SURNAME: Formatting Issue',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1205</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>SURNAME: Duplicates</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>98</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12">
+        <v>96</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v>'1205': 'SURNAME: Duplicates',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2101</v>
       </c>
@@ -1624,20 +1686,28 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Missing Data</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="J13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+      <c r="K13">
+        <v>0.01</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>'2101': 'EMAIL: Missing Data',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2101</v>
       </c>
@@ -1645,166 +1715,230 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Missing Data</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v>'2101': 'EMAIL: Missing Data',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2102</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Unnecessary Spaces</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="J15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="K15">
+        <v>0.01</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>'2102': 'EMAIL: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2103</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Invalid Characters</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16">
+        <v>0.01</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v>'2103': 'EMAIL: Invalid Characters',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2103</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Invalid Characters</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="J17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="F17" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="K17">
+        <v>0.01</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v>'2103': 'EMAIL: Invalid Characters',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2104</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="J18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Formatting Issue</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="K18">
+        <v>0.01</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>'2104': 'EMAIL: Formatting Issue',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2105</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Duplicates</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19">
+        <v>0.01</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>'2105': 'EMAIL: Duplicates',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2106</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Two Emails</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K20">
+        <v>0.01</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>'2106': 'EMAIL: Two Emails',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>139</v>
+        <v>101</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Invalid domain</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="J21">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="K21">
+        <v>0.01</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>'2107': 'EMAIL: Invalid domain',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>3101</v>
       </c>
@@ -1812,22 +1946,30 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Missing Data</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22">
+        <v>0.01</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>'3101': 'PHONE: Missing Data',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>3101</v>
       </c>
@@ -1835,151 +1977,215 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Missing Data</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J23">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23">
+        <v>0.01</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>'3101': 'PHONE: Missing Data',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>3102</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Unnecessary Spaces</v>
+      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="G24" s="3"/>
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v>'3102': 'PHONE: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>3103</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="J25">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Invalid characters</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="K25">
+        <v>0.01</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v>'3103': 'PHONE: Invalid characters',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3104</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>145</v>
+        <v>104</v>
+      </c>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Formatting Issue</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="J26">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="K26">
+        <v>0.01</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>'3104': 'PHONE: Formatting Issue',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3105</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Too many digits</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="F27" s="3"/>
-      <c r="J27">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G27" s="3"/>
+      <c r="K27">
+        <v>0.01</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>'3105': 'PHONE: Too many digits',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3106</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J28">
+        <v>104</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Too little digits</v>
+      </c>
+      <c r="K28">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v>'3106': 'PHONE: Too little digits',</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3107</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Two phone numbers</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="F29" s="3"/>
-      <c r="J29">
+      <c r="G29" s="3"/>
+      <c r="K29">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v>'3107': 'PHONE: Two phone numbers',</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>3108</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J30">
+        <v>104</v>
+      </c>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Different country format</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K30">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v>'3108': 'PHONE: Different country format',</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>4101</v>
       </c>
@@ -1989,18 +2195,26 @@
       <c r="C31" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Missing Data</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="J31">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G31" s="3"/>
+      <c r="K31">
+        <v>0.01</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v>'4101': 'STREET_NAME: Missing Data',</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>4101</v>
       </c>
@@ -2010,1104 +2224,1446 @@
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Missing Data</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="J32">
+      <c r="G32" s="3"/>
+      <c r="K32">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v>'4101': 'STREET_NAME: Missing Data',</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>4102</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Unnecessary Spaces</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33">
+        <v>0.01</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v>'4102': 'STREET_NAME: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>4103</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid characters</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="J34">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G34" s="3"/>
+      <c r="K34">
+        <v>0.01</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v>'4103': 'STREET_NAME: Invalid characters',</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>4104</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains house number</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J35">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35">
+        <v>0.01</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v>'4104': 'STREET_NAME: Contains house number',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>4104</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains house number</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="J36">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G36" s="3"/>
+      <c r="K36">
+        <v>0.01</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v>'4104': 'STREET_NAME: Contains house number',</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>4104</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains house number</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37">
+      <c r="G37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K37">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v>'4104': 'STREET_NAME: Contains house number',</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>4105</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains variation of BŠ</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M38" t="str">
+        <f t="shared" si="1"/>
+        <v>'4105': 'STREET_NAME: Contains variation of BŠ',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>4105</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains variation of BŠ</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J39">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>0.01</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="1"/>
+        <v>'4105': 'STREET_NAME: Contains variation of BŠ',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>4106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid abbreviations</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="J40">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G40" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K40">
+        <v>0.01</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="1"/>
+        <v>'4106': 'STREET_NAME: Invalid abbreviations',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>4107</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: No space after full stop</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="J41">
+      <c r="G41" s="3"/>
+      <c r="K41">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v>'4107': 'STREET_NAME: No space after full stop',</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>4108</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="3"/>
+      <c r="D42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Only numbers</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="F42" s="3"/>
-      <c r="J42">
+      <c r="G42" s="3"/>
+      <c r="K42">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v>'4108': 'STREET_NAME: Only numbers',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>4109</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="J43">
+      <c r="G43" s="3"/>
+      <c r="K43">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M43" t="str">
+        <f t="shared" si="1"/>
+        <v>'4109': 'STREET_NAME: Duplicates',</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>4109</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="J44">
+      <c r="G44" s="3"/>
+      <c r="K44">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v>'4109': 'STREET_NAME: Duplicates',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>4109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45">
+      <c r="G45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="M45" t="str">
+        <f t="shared" si="1"/>
+        <v>'4109': 'STREET_NAME: Duplicates',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>4109</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K46">
+        <v>0.01</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="1"/>
+        <v>'4109': 'STREET_NAME: Duplicates',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>4109</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K47">
+        <v>0.01</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="1"/>
+        <v>'4109': 'STREET_NAME: Duplicates',</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>4109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>0.01</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="1"/>
+        <v>'4109': 'STREET_NAME: Duplicates',</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>4109</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J49">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K49">
+        <v>0.01</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="1"/>
+        <v>'4109': 'STREET_NAME: Duplicates',</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>4109</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J50">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50">
+        <v>0.01</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="1"/>
+        <v>'4109': 'STREET_NAME: Duplicates',</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>4110</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Starts with number</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="J51">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G51" s="3"/>
+      <c r="K51">
+        <v>0.01</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="1"/>
+        <v>'4110': 'STREET_NAME: Starts with number',</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>4111</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: More than 2 commas</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="J52">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G52" s="3"/>
+      <c r="K52">
+        <v>0.01</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="1"/>
+        <v>'4111': 'STREET_NAME: More than 2 commas',</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>4112</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E53" s="3"/>
+      <c r="D53" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Cannot contain digit at the end</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="F53" s="3"/>
-      <c r="J53">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17">
-        <v>4114</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="J54" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="17">
-        <v>4113</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F55" s="17"/>
-      <c r="J55" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17">
-        <v>4113</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="17"/>
-      <c r="J56" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G53" s="3"/>
+      <c r="K53">
+        <v>0.01</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="1"/>
+        <v>'4112': 'STREET_NAME: Cannot contain digit at the end',</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>4201</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: Missing Data</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="K54">
+        <v>0.01</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="1"/>
+        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>4201</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: Missing Data</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="K55">
+        <v>0.01</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="1"/>
+        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>4202</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: Unnecessary spaces</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="3">
+        <v>2</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="K56">
+        <v>0.01</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="1"/>
+        <v>'4202': 'HOUSE_NUMBER: Unnecessary spaces',</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>4201</v>
+        <v>4203</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="J57">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57">
+        <v>0.01</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="1"/>
+        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>4201</v>
+        <v>4203</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>30</v>
+      <c r="D58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="J58">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K58">
+        <v>0.01</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="1"/>
+        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D59" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2</v>
-      </c>
-      <c r="F59" s="3"/>
-      <c r="J59">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D59" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3">
+        <v>34</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K59">
+        <v>0.01</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="1"/>
+        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>48</v>
+      <c r="D60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: No house number</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J60">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="K60">
+        <v>0.01</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="1"/>
+        <v>'4204': 'HOUSE_NUMBER: No house number',</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E61" s="3">
-        <v>6</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J61">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D61" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: No house number</v>
+      </c>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3">
+        <v>34</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="K61">
+        <v>0.01</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="1"/>
+        <v>'4204': 'HOUSE_NUMBER: No house number',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>4203</v>
+        <v>4205</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3">
-        <v>34</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J62">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D62" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: invalid combination</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="K62">
+        <v>0.01</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="1"/>
+        <v>'4205': 'HOUSE_NUMBER: invalid combination',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>4204</v>
+        <v>4206</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="J63">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D63" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: Leading 0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="3">
+        <v>7</v>
+      </c>
+      <c r="G63" s="3"/>
+      <c r="K63">
+        <v>0.01</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="1"/>
+        <v>'4206': 'HOUSE_NUMBER: Leading 0',</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>4204</v>
+        <v>4207</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3">
-        <v>34</v>
-      </c>
-      <c r="F64" s="3"/>
-      <c r="J64">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D64" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: Spacing between components</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="K64">
+        <v>0.01</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="1"/>
+        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>4205</v>
+        <v>4207</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="J65">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D65" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: Spacing between components</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="K65">
+        <v>0.01</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="1"/>
+        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E66" s="3">
-        <v>7</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="J66">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D66" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>HOUSE_NUMBER: Spacing between components</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="3"/>
+      <c r="K66">
+        <v>0.01</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="1"/>
+        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>54</v>
+      <c r="D67" s="3" t="str">
+        <f t="shared" ref="D67:D81" si="2">_xlfn.CONCAT(C67,": ", B67)</f>
+        <v>HOUSE_NUMBER: Contains roman numerals</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="J67">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F67" s="3">
+        <v>9</v>
+      </c>
+      <c r="G67" s="3"/>
+      <c r="K67">
+        <v>0.02</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M81" si="3">_xlfn.CONCAT("'",A67,"': '",D67,"',")</f>
+        <v>'4208': 'HOUSE_NUMBER: Contains roman numerals',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>4207</v>
+        <v>4301</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68" s="3"/>
-      <c r="J68">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D68" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ZIPCODE: Missing Data</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K68">
+        <v>0.05</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="3"/>
+        <v>'4301': 'ZIPCODE: Missing Data',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>4207</v>
+        <v>4302</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>244</v>
+        <v>67</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F69" s="3"/>
-      <c r="J69">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D69" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ZIPCODE: Unnecessary Spaces</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69">
+        <v>0.03</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="3"/>
+        <v>'4302': 'ZIPCODE: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>4208</v>
+        <v>4303</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" s="3">
-        <v>9</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="J70">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D70" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ZIPCODE: invalid characters</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K70">
+        <v>0.01</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="3"/>
+        <v>'4303': 'ZIPCODE: invalid characters',</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>4301</v>
+        <v>4304</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>31</v>
+      <c r="D71" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ZIPCODE: Less than 4</v>
+      </c>
+      <c r="E71" s="3">
+        <v>231</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J71">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="K71">
+        <v>0.01</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="3"/>
+        <v>'4304': 'ZIPCODE: Less than 4',</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>4302</v>
+        <v>4305</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>69</v>
+        <v>246</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="13" t="s">
-        <v>118</v>
+      <c r="D72" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ZIPCODE: More than 4</v>
       </c>
       <c r="E72" s="3">
-        <v>1000</v>
+        <v>12098</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J72">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="K72">
+        <v>0.02</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="3"/>
+        <v>'4305': 'ZIPCODE: More than 4',</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>4303</v>
+        <v>4306</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E73" s="3">
+      <c r="D73" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ZIPCODE: Contains Letters</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F73" s="3">
         <v>1000</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J73">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <v>0.01</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="3"/>
+        <v>'4306': 'ZIPCODE: Contains Letters',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>4304</v>
+        <v>4307</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="3">
-        <v>231</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="D74" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>ZIPCODE: Invalid Value</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="K74">
+        <v>0.05</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="3"/>
+        <v>'4307': 'ZIPCODE: Invalid Value',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>4401</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Missing Data</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K75">
+        <v>0.01</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="3"/>
+        <v>'4401': 'POSTAL_CITY: Missing Data',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>4402</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="3"/>
-      <c r="J74">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>4305</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D75" s="3">
-        <v>12098</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F75" s="3"/>
-      <c r="J75">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>4306</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="C76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1000</v>
+        <v>99</v>
+      </c>
+      <c r="D76" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Unnecessary Spaces</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J76">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>4307</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76">
+        <v>0.03</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="3"/>
+        <v>'4402': 'POSTAL_CITY: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" s="3"/>
-      <c r="J77">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>4401</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J78">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>4402</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>69</v>
+        <v>99</v>
+      </c>
+      <c r="D77" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Invalid characters</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="3"/>
+        <v>'4403': 'POSTAL_CITY: Invalid characters',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B78" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D78" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Contains digits</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="3"/>
+        <v>'4404': 'POSTAL_CITY: Contains digits',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J79">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="D79" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Invalid abbreviations</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="3"/>
+        <v>'4405': 'POSTAL_CITY: Invalid abbreviations',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="B81" t="s">
-        <v>246</v>
+        <v>99</v>
+      </c>
+      <c r="D80" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Duplicates</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="3"/>
+        <v>'4406': 'POSTAL_CITY: Duplicates',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B82" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="B83" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D84" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE: Duplicate Row</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>126</v>
+      <c r="G81" s="3"/>
+      <c r="M81" t="str">
+        <f t="shared" si="3"/>
+        <v>'': 'NONE: Duplicate Row',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I84" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:I83">
-      <sortCondition ref="A1:A84"/>
+  <autoFilter ref="A1:J81" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:J80">
+      <sortCondition ref="A1:A81"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" display="example@gmial.com" xr:uid="{26614BCF-17CC-CC4B-8956-8F6930E60309}"/>
-    <hyperlink ref="E21" r:id="rId2" display="example@gmail.com" xr:uid="{8748665C-4957-DF46-BCAE-78DDC2747FA2}"/>
-    <hyperlink ref="E16" r:id="rId3" xr:uid="{C97D70EF-2237-5345-A311-3AAA5FB2604F}"/>
-    <hyperlink ref="D17" r:id="rId4" xr:uid="{5452BAFC-13C2-3F47-9997-9E87936810D4}"/>
-    <hyperlink ref="E17" r:id="rId5" xr:uid="{26E7AAAB-28B9-3346-B8F0-69E39759EBA8}"/>
-    <hyperlink ref="E19" r:id="rId6" xr:uid="{1E86A40A-BC53-844D-A055-9CA50642AB3B}"/>
+    <hyperlink ref="E21" r:id="rId1" display="example@gmial.com" xr:uid="{26614BCF-17CC-CC4B-8956-8F6930E60309}"/>
+    <hyperlink ref="F21" r:id="rId2" display="example@gmail.com" xr:uid="{8748665C-4957-DF46-BCAE-78DDC2747FA2}"/>
+    <hyperlink ref="F16" r:id="rId3" xr:uid="{C97D70EF-2237-5345-A311-3AAA5FB2604F}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{5452BAFC-13C2-3F47-9997-9E87936810D4}"/>
+    <hyperlink ref="F17" r:id="rId5" xr:uid="{26E7AAAB-28B9-3346-B8F0-69E39759EBA8}"/>
+    <hyperlink ref="F19" r:id="rId6" xr:uid="{1E86A40A-BC53-844D-A055-9CA50642AB3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3123,12 +3679,12 @@
   <sheetData>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -3138,322 +3694,322 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -3487,7 +4043,7 @@
         <v>1101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3495,7 +4051,7 @@
         <v>1102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3503,7 +4059,7 @@
         <v>1103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3519,7 +4075,7 @@
         <v>1105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3527,7 +4083,7 @@
         <v>1106</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3535,7 +4091,7 @@
         <v>1201</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3543,7 +4099,7 @@
         <v>1202</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3559,7 +4115,7 @@
         <v>1204</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3567,7 +4123,7 @@
         <v>2101</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3583,7 +4139,7 @@
         <v>2103</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -3591,7 +4147,7 @@
         <v>2104</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -3607,7 +4163,7 @@
         <v>2106</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3615,7 +4171,7 @@
         <v>2107</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -3623,7 +4179,7 @@
         <v>2108</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -3631,7 +4187,7 @@
         <v>3101</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3639,7 +4195,7 @@
         <v>3102</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -3647,7 +4203,7 @@
         <v>3103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -3655,7 +4211,7 @@
         <v>3104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -3679,7 +4235,7 @@
         <v>3107</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -3687,7 +4243,7 @@
         <v>3108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -3703,7 +4259,7 @@
         <v>4102</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -3711,7 +4267,7 @@
         <v>4103</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -3719,7 +4275,7 @@
         <v>4104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -3727,7 +4283,7 @@
         <v>4104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -3735,7 +4291,7 @@
         <v>4104</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -3743,7 +4299,7 @@
         <v>4105</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -3751,7 +4307,7 @@
         <v>4106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -3775,7 +4331,7 @@
         <v>4109</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -3791,7 +4347,7 @@
         <v>4111</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -3799,7 +4355,7 @@
         <v>4112</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -3807,7 +4363,7 @@
         <v>4113</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -3815,7 +4371,7 @@
         <v>4113</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -3831,7 +4387,7 @@
         <v>4113</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -3847,7 +4403,7 @@
         <v>4202</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -3855,7 +4411,7 @@
         <v>4203</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -3863,7 +4419,7 @@
         <v>4203</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -3871,7 +4427,7 @@
         <v>4203</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -3879,7 +4435,7 @@
         <v>4204</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -3887,7 +4443,7 @@
         <v>4204</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -3927,7 +4483,7 @@
         <v>4301</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -3943,7 +4499,7 @@
         <v>4303</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -3959,7 +4515,7 @@
         <v>4305</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -3983,7 +4539,7 @@
         <v>4308</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -3999,7 +4555,7 @@
         <v>4402</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/raw_data/TG_errors.xlsx
+++ b/src/raw_data/TG_errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4F0DE4-3B6E-624C-BC88-88E537A2B392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD8F071-44CD-F34B-B9B7-1ECF436345A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="273">
   <si>
     <t>Error_ID</t>
   </si>
@@ -474,9 +474,6 @@
 john.doe</t>
   </si>
   <si>
-    <t>john.doe@gmail.com, john.doe@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ' '
 NULL</t>
   </si>
@@ -810,6 +807,81 @@
   </si>
   <si>
     <t>ERROR_MESSAGE</t>
+  </si>
+  <si>
+    <t>Possibly Two Emails</t>
+  </si>
+  <si>
+    <t>Possibly Invalid domain</t>
+  </si>
+  <si>
+    <t>Very common, for letters š,č,ž</t>
+  </si>
+  <si>
+    <t>GORIŠNICA</t>
+  </si>
+  <si>
+    <t>GORIšNICA, GORIŠNICA</t>
+  </si>
+  <si>
+    <t>Duplicates because of capital/small letters</t>
+  </si>
+  <si>
+    <t>DOMŽALE</t>
+  </si>
+  <si>
+    <t>DOM\@ALE</t>
+  </si>
+  <si>
+    <t>AJDOVŠČINA</t>
+  </si>
+  <si>
+    <t>AJDOVščINA, AJDOVŠČINA</t>
+  </si>
+  <si>
+    <t>ŠTORE</t>
+  </si>
+  <si>
+    <t>#TORE</t>
+  </si>
+  <si>
+    <t>TOVARNIŠKA CESTA</t>
+  </si>
+  <si>
+    <t>TOVARNI#KA CESTA, TOVARNIšKA CESTA</t>
+  </si>
+  <si>
+    <t>Invalid characters + Duplikates</t>
+  </si>
+  <si>
+    <t>OBRTNIŠKA ULICA, OBRTNIšKA ULICA</t>
+  </si>
+  <si>
+    <t>BEZENŠKOVA ULICA</t>
+  </si>
+  <si>
+    <t>BEZEN#KOVA ULICA</t>
+  </si>
+  <si>
+    <t>ŠARANOVČEVA CESTA</t>
+  </si>
+  <si>
+    <t>#ARANOVČEVA CESTA</t>
+  </si>
+  <si>
+    <t>GORIŠKI VRH</t>
+  </si>
+  <si>
+    <t>GORIšKI VRH</t>
+  </si>
+  <si>
+    <t>Inconsistent letters (capital vs. small)</t>
+  </si>
+  <si>
+    <t>ŽEBLJARSKA POT</t>
+  </si>
+  <si>
+    <t>\@EBLJARSKA POT</t>
   </si>
 </sst>
 </file>
@@ -1296,11 +1368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M31" sqref="M31:M80"/>
+    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1319,16 +1391,16 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1349,7 +1421,7 @@
         <v>109</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -1367,7 +1439,7 @@
         <v>NAME: Missing Data</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>31</v>
@@ -1392,7 +1464,7 @@
         <v>91</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D66" si="0">_xlfn.CONCAT(C3,": ", B3)</f>
+        <f>_xlfn.CONCAT(C3,": ", B3)</f>
         <v>NAME: Unnecessary Spaces</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1408,7 +1480,7 @@
         <v>0.05</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M66" si="1">_xlfn.CONCAT("'",A3,"': '",D3,"',")</f>
+        <f t="shared" ref="M3:M65" si="0">_xlfn.CONCAT("'",A3,"': '",D3,"',")</f>
         <v>'1102': 'NAME: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -1423,7 +1495,7 @@
         <v>91</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C4,": ", B4)</f>
         <v>NAME: Invalid Characters</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1439,7 +1511,7 @@
         <v>0.02</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1103': 'NAME: Invalid Characters',</v>
       </c>
     </row>
@@ -1454,7 +1526,7 @@
         <v>91</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C5,": ", B5)</f>
         <v>NAME: Formatting Issue</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1468,7 +1540,7 @@
         <v>0.03</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1104': 'NAME: Formatting Issue',</v>
       </c>
     </row>
@@ -1483,7 +1555,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C6,": ", B6)</f>
         <v>NAME: Duplicates</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1499,7 +1571,7 @@
         <v>0.05</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1105': 'NAME: Duplicates',</v>
       </c>
     </row>
@@ -1514,7 +1586,7 @@
         <v>91</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C7,": ", B7)</f>
         <v>NAME: Two names in one field</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1526,7 +1598,7 @@
         <v>0.02</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1106': 'NAME: Two names in one field',</v>
       </c>
     </row>
@@ -1541,11 +1613,11 @@
         <v>95</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C8,": ", B8)</f>
         <v>SURNAME: Missing Data</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>31</v>
@@ -1555,7 +1627,7 @@
         <v>0.01</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1201': 'SURNAME: Missing Data',</v>
       </c>
     </row>
@@ -1570,7 +1642,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C9,": ", B9)</f>
         <v>SURNAME: Unnecessary Spaces</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1586,7 +1658,7 @@
         <v>0.01</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1202': 'SURNAME: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -1601,7 +1673,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C10,": ", B10)</f>
         <v>SURNAME: Invalid Characters</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -1617,7 +1689,7 @@
         <v>0.05</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1203': 'SURNAME: Invalid Characters',</v>
       </c>
     </row>
@@ -1632,18 +1704,18 @@
         <v>95</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C11,": ", B11)</f>
         <v>SURNAME: Formatting Issue</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>96</v>
       </c>
       <c r="G11" s="3"/>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1204': 'SURNAME: Formatting Issue',</v>
       </c>
     </row>
@@ -1658,7 +1730,7 @@
         <v>95</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C12,": ", B12)</f>
         <v>SURNAME: Duplicates</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -1674,7 +1746,7 @@
         <v>0.05</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1205': 'SURNAME: Duplicates',</v>
       </c>
     </row>
@@ -1689,7 +1761,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D13:D65" si="1">_xlfn.CONCAT(C13,": ", B13)</f>
         <v>EMAIL: Missing Data</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1703,7 +1775,7 @@
         <v>0.01</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
@@ -1718,7 +1790,7 @@
         <v>101</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMAIL: Missing Data</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1731,7 +1803,7 @@
         <v>85</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
@@ -1746,7 +1818,7 @@
         <v>101</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMAIL: Unnecessary Spaces</v>
       </c>
       <c r="E15" s="4"/>
@@ -1756,7 +1828,7 @@
         <v>0.01</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2102': 'EMAIL: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -1771,7 +1843,7 @@
         <v>101</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMAIL: Invalid Characters</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1787,7 +1859,7 @@
         <v>0.01</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2103': 'EMAIL: Invalid Characters',</v>
       </c>
     </row>
@@ -1802,7 +1874,7 @@
         <v>101</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMAIL: Invalid Characters</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1816,7 +1888,7 @@
         <v>0.01</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2103': 'EMAIL: Invalid Characters',</v>
       </c>
     </row>
@@ -1831,7 +1903,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMAIL: Formatting Issue</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1845,30 +1917,28 @@
         <v>0.01</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2104': 'EMAIL: Formatting Issue',</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2105</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EMAIL: Duplicates</v>
+        <f t="shared" si="1"/>
+        <v>EMAIL: Possibly Two Emails</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>102</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
         <v>87</v>
       </c>
@@ -1876,66 +1946,68 @@
         <v>0.01</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
-        <v>'2105': 'EMAIL: Duplicates',</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>'2105': 'EMAIL: Possibly Two Emails',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2106</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EMAIL: Two Emails</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>87</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>EMAIL: Possibly Invalid domain</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="K20">
         <v>0.01</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
-        <v>'2106': 'EMAIL: Two Emails',</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>'2106': 'EMAIL: Possibly Invalid domain',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>2107</v>
+        <v>3101</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EMAIL: Invalid domain</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G21" s="3"/>
+        <f t="shared" si="1"/>
+        <v>PHONE: Missing Data</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="K21">
         <v>0.01</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
-        <v>'2107': 'EMAIL: Invalid domain',</v>
+        <f t="shared" si="0"/>
+        <v>'3101': 'PHONE: Missing Data',</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1949,11 +2021,11 @@
         <v>104</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PHONE: Missing Data</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>31</v>
+      <c r="E22" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>31</v>
@@ -1965,224 +2037,222 @@
         <v>0.01</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'3101': 'PHONE: Missing Data',</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Missing Data</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K23">
-        <v>0.01</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>PHONE: Unnecessary Spaces</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
-        <v>'3101': 'PHONE: Missing Data',</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>'3102': 'PHONE: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Unnecessary Spaces</v>
-      </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+        <f t="shared" si="1"/>
+        <v>PHONE: Invalid characters</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="K24">
+        <v>0.01</v>
+      </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
-        <v>'3102': 'PHONE: Unnecessary Spaces',</v>
+        <f t="shared" si="0"/>
+        <v>'3103': 'PHONE: Invalid characters',</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Invalid characters</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="11"/>
+        <f t="shared" si="1"/>
+        <v>PHONE: Formatting Issue</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="3"/>
       <c r="K25">
         <v>0.01</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
-        <v>'3103': 'PHONE: Invalid characters',</v>
+        <f t="shared" si="0"/>
+        <v>'3104': 'PHONE: Formatting Issue',</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Formatting Issue</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="12" t="s">
+        <f t="shared" si="1"/>
+        <v>PHONE: Too many digits</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>142</v>
       </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="K26">
         <v>0.01</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
-        <v>'3104': 'PHONE: Formatting Issue',</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>'3105': 'PHONE: Too many digits',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Too many digits</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+        <f t="shared" si="1"/>
+        <v>PHONE: Too little digits</v>
+      </c>
       <c r="K27">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
-        <v>'3105': 'PHONE: Too many digits',</v>
+        <f t="shared" si="0"/>
+        <v>'3106': 'PHONE: Too little digits',</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Too little digits</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>PHONE: Two phone numbers</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="K28">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
-        <v>'3106': 'PHONE: Too little digits',</v>
+        <f t="shared" si="0"/>
+        <v>'3107': 'PHONE: Two phone numbers',</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Two phone numbers</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>119</v>
+        <f t="shared" si="1"/>
+        <v>PHONE: Different country format</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>144</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="K29">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="1"/>
-        <v>'3107': 'PHONE: Two phone numbers',</v>
+        <f t="shared" si="0"/>
+        <v>'3108': 'PHONE: Different country format',</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>3108</v>
+        <v>4101</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Different country format</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>90</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: Missing Data</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="K30">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="1"/>
-        <v>'3108': 'PHONE: Different country format',</v>
+        <f t="shared" si="0"/>
+        <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2196,111 +2266,113 @@
         <v>11</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Missing Data</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="3"/>
       <c r="K31">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>4101</v>
+        <v>4102</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Missing Data</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: Unnecessary Spaces</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="K32">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="1"/>
-        <v>'4101': 'STREET_NAME: Missing Data',</v>
+        <f t="shared" si="0"/>
+        <v>'4102': 'STREET_NAME: Unnecessary Spaces',</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Unnecessary Spaces</v>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: Invalid characters</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="G33" s="3"/>
       <c r="K33">
         <v>0.01</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="1"/>
-        <v>'4102': 'STREET_NAME: Unnecessary Spaces',</v>
+        <f t="shared" si="0"/>
+        <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Invalid characters</v>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="K34">
         <v>0.01</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="1"/>
-        <v>'4103': 'STREET_NAME: Invalid characters',</v>
+        <f t="shared" si="0"/>
+        <v>'4104': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2308,29 +2380,25 @@
         <v>4104</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
       <c r="K35">
         <v>0.01</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4104': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
@@ -2339,57 +2407,61 @@
         <v>4104</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="K36">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4104': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>4104</v>
+        <v>4105</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Contains house number</v>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: Contains variation of BŠ</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="K37">
         <v>0.05</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="1"/>
-        <v>'4104': 'STREET_NAME: Contains house number',</v>
+        <f t="shared" si="0"/>
+        <v>'4105': 'STREET_NAME: Contains variation of BŠ',</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2397,17 +2469,17 @@
         <v>4105</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Contains variation of BŠ</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>32</v>
@@ -2416,78 +2488,76 @@
         <v>38</v>
       </c>
       <c r="K38">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4105': 'STREET_NAME: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Contains variation of BŠ</v>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: Invalid abbreviations</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>38</v>
+      <c r="G39" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="K39">
         <v>0.01</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="1"/>
-        <v>'4105': 'STREET_NAME: Contains variation of BŠ',</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>'4106': 'STREET_NAME: Invalid abbreviations',</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>158</v>
+        <v>231</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Invalid abbreviations</v>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: No space after full stop</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G40" s="3"/>
       <c r="K40">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="1"/>
-        <v>'4106': 'STREET_NAME: Invalid abbreviations',</v>
+        <f t="shared" si="0"/>
+        <v>'4107': 'STREET_NAME: No space after full stop',</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>232</v>
@@ -2496,49 +2566,49 @@
         <v>11</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: No space after full stop</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>42</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: Only numbers</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="K41">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="1"/>
-        <v>'4107': 'STREET_NAME: No space after full stop',</v>
+        <f t="shared" si="0"/>
+        <v>'4108': 'STREET_NAME: Only numbers',</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Only numbers</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="3"/>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="K42">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="1"/>
-        <v>'4108': 'STREET_NAME: Only numbers',</v>
+        <f t="shared" si="0"/>
+        <v>'4109': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2552,11 +2622,11 @@
         <v>11</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>32</v>
@@ -2566,7 +2636,7 @@
         <v>0.05</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4109': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2581,21 +2651,23 @@
         <v>11</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="K44">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4109': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2610,23 +2682,23 @@
         <v>11</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>63</v>
       </c>
       <c r="K45">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4109': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2641,14 +2713,14 @@
         <v>11</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>63</v>
@@ -2657,7 +2729,7 @@
         <v>0.01</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4109': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2672,14 +2744,14 @@
         <v>11</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>63</v>
@@ -2688,7 +2760,7 @@
         <v>0.01</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4109': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2703,14 +2775,14 @@
         <v>11</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>63</v>
@@ -2719,7 +2791,7 @@
         <v>0.01</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4109': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2734,14 +2806,14 @@
         <v>11</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>63</v>
@@ -2750,44 +2822,42 @@
         <v>0.01</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4109': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Duplicates</v>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: Starts with number</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G50" s="3"/>
       <c r="K50">
         <v>0.01</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="1"/>
-        <v>'4109': 'STREET_NAME: Duplicates',</v>
+        <f t="shared" si="0"/>
+        <v>'4110': 'STREET_NAME: Starts with number',</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>4110</v>
+        <v>4111</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>234</v>
@@ -2796,27 +2866,23 @@
         <v>11</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Starts with number</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>42</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: More than 2 commas</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="K51">
         <v>0.01</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="1"/>
-        <v>'4110': 'STREET_NAME: Starts with number',</v>
+        <f t="shared" si="0"/>
+        <v>'4111': 'STREET_NAME: More than 2 commas',</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>235</v>
@@ -2825,45 +2891,49 @@
         <v>11</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: More than 2 commas</v>
-      </c>
-      <c r="E52" s="3"/>
+        <f t="shared" si="1"/>
+        <v>STREET_NAME: Cannot contain digit at the end</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="K52">
         <v>0.01</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="1"/>
-        <v>'4111': 'STREET_NAME: More than 2 commas',</v>
+        <f t="shared" si="0"/>
+        <v>'4112': 'STREET_NAME: Cannot contain digit at the end',</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>4112</v>
+        <v>4201</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Cannot contain digit at the end</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F53" s="3"/>
+        <f t="shared" si="1"/>
+        <v>HOUSE_NUMBER: Missing Data</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="K53">
         <v>0.01</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="1"/>
-        <v>'4112': 'STREET_NAME: Cannot contain digit at the end',</v>
+        <f t="shared" si="0"/>
+        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -2877,11 +2947,11 @@
         <v>5</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HOUSE_NUMBER: Missing Data</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>31</v>
@@ -2891,66 +2961,68 @@
         <v>0.01</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>HOUSE_NUMBER: Missing Data</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>HOUSE_NUMBER: Unnecessary spaces</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="3">
+        <v>2</v>
       </c>
       <c r="G55" s="3"/>
       <c r="K55">
         <v>0.01</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="1"/>
-        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
+        <f t="shared" si="0"/>
+        <v>'4202': 'HOUSE_NUMBER: Unnecessary spaces',</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>HOUSE_NUMBER: Unnecessary spaces</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F56" s="3">
-        <v>2</v>
-      </c>
-      <c r="G56" s="3"/>
+        <f t="shared" si="1"/>
+        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="K56">
         <v>0.01</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="1"/>
-        <v>'4202': 'HOUSE_NUMBER: Unnecessary spaces',</v>
+        <f t="shared" si="0"/>
+        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -2958,29 +3030,29 @@
         <v>4203</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K57">
         <v>0.01</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
@@ -2989,20 +3061,18 @@
         <v>4203</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="3">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>49</v>
@@ -3011,37 +3081,35 @@
         <v>0.01</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3">
-        <v>34</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>49</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>HOUSE_NUMBER: No house number</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
       <c r="K59">
         <v>0.01</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="1"/>
-        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
+        <f t="shared" si="0"/>
+        <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -3049,85 +3117,87 @@
         <v>4204</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HOUSE_NUMBER: No house number</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3">
+        <v>34</v>
+      </c>
       <c r="G60" s="3"/>
       <c r="K60">
         <v>0.01</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>HOUSE_NUMBER: No house number</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3">
-        <v>34</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>HOUSE_NUMBER: invalid combination</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="K61">
         <v>0.01</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="1"/>
-        <v>'4204': 'HOUSE_NUMBER: No house number',</v>
+        <f t="shared" si="0"/>
+        <v>'4205': 'HOUSE_NUMBER: invalid combination',</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>HOUSE_NUMBER: invalid combination</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" s="3"/>
+        <f t="shared" si="1"/>
+        <v>HOUSE_NUMBER: Leading 0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="3">
+        <v>7</v>
+      </c>
       <c r="G62" s="3"/>
       <c r="K62">
         <v>0.01</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="1"/>
-        <v>'4205': 'HOUSE_NUMBER: invalid combination',</v>
+        <f t="shared" si="0"/>
+        <v>'4206': 'HOUSE_NUMBER: Leading 0',</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>238</v>
@@ -3136,22 +3206,22 @@
         <v>5</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>HOUSE_NUMBER: Leading 0</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F63" s="3">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>HOUSE_NUMBER: Spacing between components</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G63" s="3"/>
       <c r="K63">
         <v>0.01</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="1"/>
-        <v>'4206': 'HOUSE_NUMBER: Leading 0',</v>
+        <f t="shared" si="0"/>
+        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3159,17 +3229,17 @@
         <v>4207</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HOUSE_NUMBER: Spacing between components</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>54</v>
@@ -3179,7 +3249,7 @@
         <v>0.01</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
@@ -3188,17 +3258,17 @@
         <v>4207</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HOUSE_NUMBER: Spacing between components</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>54</v>
@@ -3208,13 +3278,13 @@
         <v>0.01</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>239</v>
@@ -3223,324 +3293,314 @@
         <v>5</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>HOUSE_NUMBER: Spacing between components</v>
+        <f t="shared" ref="D66:D80" si="2">_xlfn.CONCAT(C66,": ", B66)</f>
+        <v>HOUSE_NUMBER: Contains roman numerals</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F66" s="3">
+        <v>9</v>
       </c>
       <c r="G66" s="3"/>
       <c r="K66">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="1"/>
-        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="M66:M80" si="3">_xlfn.CONCAT("'",A66,"': '",D66,"',")</f>
+        <v>'4208': 'HOUSE_NUMBER: Contains roman numerals',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>4208</v>
+        <v>4301</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" ref="D67:D81" si="2">_xlfn.CONCAT(C67,": ", B67)</f>
-        <v>HOUSE_NUMBER: Contains roman numerals</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F67" s="3">
-        <v>9</v>
-      </c>
-      <c r="G67" s="3"/>
+        <f t="shared" si="2"/>
+        <v>ZIPCODE: Missing Data</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="K67">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M81" si="3">_xlfn.CONCAT("'",A67,"': '",D67,"',")</f>
-        <v>'4208': 'HOUSE_NUMBER: Contains roman numerals',</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <f t="shared" si="3"/>
+        <v>'4301': 'ZIPCODE: Missing Data',</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: Missing Data</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>31</v>
+        <v>ZIPCODE: Unnecessary Spaces</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1000</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K68">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="3"/>
-        <v>'4301': 'ZIPCODE: Missing Data',</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+        <v>'4302': 'ZIPCODE: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: Unnecessary Spaces</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>114</v>
+        <v>ZIPCODE: invalid characters</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="F69" s="3">
         <v>1000</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K69">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="3"/>
-        <v>'4302': 'ZIPCODE: Unnecessary Spaces',</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>'4303': 'ZIPCODE: invalid characters',</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: invalid characters</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>ZIPCODE: Less than 4</v>
+      </c>
+      <c r="E70" s="3">
+        <v>231</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="3"/>
       <c r="K70">
         <v>0.01</v>
       </c>
       <c r="M70" t="str">
         <f t="shared" si="3"/>
-        <v>'4303': 'ZIPCODE: invalid characters',</v>
+        <v>'4304': 'ZIPCODE: Less than 4',</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: Less than 4</v>
+        <v>ZIPCODE: More than 4</v>
       </c>
       <c r="E71" s="3">
-        <v>231</v>
+        <v>12098</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G71" s="3"/>
       <c r="K71">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M71" t="str">
         <f t="shared" si="3"/>
-        <v>'4304': 'ZIPCODE: Less than 4',</v>
+        <v>'4305': 'ZIPCODE: More than 4',</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>246</v>
+        <v>82</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: More than 4</v>
-      </c>
-      <c r="E72" s="3">
-        <v>12098</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G72" s="3"/>
+        <v>ZIPCODE: Contains Letters</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="K72">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="3"/>
-        <v>'4305': 'ZIPCODE: More than 4',</v>
+        <v>'4306': 'ZIPCODE: Contains Letters',</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: Contains Letters</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F73" s="3">
+        <v>ZIPCODE: Invalid Value</v>
+      </c>
+      <c r="E73" s="3">
         <v>1000</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="F73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" s="3"/>
       <c r="K73">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="3"/>
-        <v>'4306': 'ZIPCODE: Contains Letters',</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>'4307': 'ZIPCODE: Invalid Value',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>4307</v>
+        <v>4401</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="D74" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: Invalid Value</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1000</v>
+        <v>POSTAL_CITY: Missing Data</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="K74">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="M74" t="str">
         <f t="shared" si="3"/>
-        <v>'4307': 'ZIPCODE: Invalid Value',</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>'4401': 'POSTAL_CITY: Missing Data',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D75" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Missing Data</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>146</v>
+        <v>POSTAL_CITY: Unnecessary Spaces</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K75">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="3"/>
-        <v>'4401': 'POSTAL_CITY: Missing Data',</v>
+        <v>'4402': 'POSTAL_CITY: Unnecessary Spaces',</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>4402</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>67</v>
+      <c r="A76" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D76" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Unnecessary Spaces</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K76">
-        <v>0.03</v>
+        <v>POSTAL_CITY: Invalid characters</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="3"/>
-        <v>'4402': 'POSTAL_CITY: Unnecessary Spaces',</v>
+        <v>'4403': 'POSTAL_CITY: Invalid characters',</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -3548,18 +3608,18 @@
         <v>242</v>
       </c>
       <c r="B77" t="s">
-        <v>153</v>
+        <v>240</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D77" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Invalid characters</v>
+        <v>POSTAL_CITY: Contains digits</v>
       </c>
       <c r="M77" t="str">
         <f t="shared" si="3"/>
-        <v>'4403': 'POSTAL_CITY: Invalid characters',</v>
+        <v>'4404': 'POSTAL_CITY: Contains digits',</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -3567,18 +3627,18 @@
         <v>243</v>
       </c>
       <c r="B78" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D78" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Contains digits</v>
+        <v>POSTAL_CITY: Invalid abbreviations</v>
       </c>
       <c r="M78" t="str">
         <f t="shared" si="3"/>
-        <v>'4404': 'POSTAL_CITY: Contains digits',</v>
+        <v>'4405': 'POSTAL_CITY: Invalid abbreviations',</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -3586,81 +3646,210 @@
         <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>99</v>
       </c>
       <c r="D79" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Invalid abbreviations</v>
+        <v>POSTAL_CITY: Duplicates</v>
       </c>
       <c r="M79" t="str">
         <f t="shared" si="3"/>
-        <v>'4405': 'POSTAL_CITY: Invalid abbreviations',</v>
+        <v>'4406': 'POSTAL_CITY: Duplicates',</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B80" t="s">
-        <v>70</v>
+      <c r="A80" s="3"/>
+      <c r="B80" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D80" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Duplicates</v>
-      </c>
+        <v>NONE: Duplicate Row</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="3"/>
       <c r="M80" t="str">
         <f t="shared" si="3"/>
-        <v>'4406': 'POSTAL_CITY: Duplicates',</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3" t="s">
-        <v>8</v>
+        <v>'': 'NONE: Duplicate Row',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>152</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D81" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>NONE: Duplicate Row</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="M81" t="str">
-        <f t="shared" si="3"/>
-        <v>'': 'NONE: Duplicate Row',</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>272</v>
+      </c>
+      <c r="E81" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>270</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>269</v>
+      </c>
+      <c r="E82" t="s">
+        <v>268</v>
+      </c>
+      <c r="F82" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>267</v>
+      </c>
+      <c r="E83" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>265</v>
+      </c>
+      <c r="E84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>253</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>263</v>
+      </c>
+      <c r="F85" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>262</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D87" t="s">
+        <v>259</v>
+      </c>
+      <c r="E87" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88" t="s">
+        <v>256</v>
+      </c>
+      <c r="F88" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" t="s">
+        <v>255</v>
+      </c>
+      <c r="E89" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" t="s">
+        <v>252</v>
+      </c>
+      <c r="E90" t="s">
+        <v>251</v>
+      </c>
+      <c r="F90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J81" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:J80">
-      <sortCondition ref="A1:A81"/>
+  <autoFilter ref="A1:J90" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
+      <sortCondition ref="A1:A80"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" display="example@gmial.com" xr:uid="{26614BCF-17CC-CC4B-8956-8F6930E60309}"/>
-    <hyperlink ref="F21" r:id="rId2" display="example@gmail.com" xr:uid="{8748665C-4957-DF46-BCAE-78DDC2747FA2}"/>
+    <hyperlink ref="E20" r:id="rId1" display="example@gmial.com" xr:uid="{26614BCF-17CC-CC4B-8956-8F6930E60309}"/>
+    <hyperlink ref="F20" r:id="rId2" display="example@gmail.com" xr:uid="{8748665C-4957-DF46-BCAE-78DDC2747FA2}"/>
     <hyperlink ref="F16" r:id="rId3" xr:uid="{C97D70EF-2237-5345-A311-3AAA5FB2604F}"/>
     <hyperlink ref="E17" r:id="rId4" xr:uid="{5452BAFC-13C2-3F47-9997-9E87936810D4}"/>
     <hyperlink ref="F17" r:id="rId5" xr:uid="{26E7AAAB-28B9-3346-B8F0-69E39759EBA8}"/>
-    <hyperlink ref="F19" r:id="rId6" xr:uid="{1E86A40A-BC53-844D-A055-9CA50642AB3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3679,12 +3868,12 @@
   <sheetData>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
@@ -3694,322 +3883,322 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4187,7 +4376,7 @@
         <v>3101</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4195,7 +4384,7 @@
         <v>3102</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4203,7 +4392,7 @@
         <v>3103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4211,7 +4400,7 @@
         <v>3104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4243,7 +4432,7 @@
         <v>3108</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4275,7 +4464,7 @@
         <v>4104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4283,7 +4472,7 @@
         <v>4104</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4291,7 +4480,7 @@
         <v>4104</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4299,7 +4488,7 @@
         <v>4105</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -4307,7 +4496,7 @@
         <v>4106</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -4515,7 +4704,7 @@
         <v>4305</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/raw_data/TG_errors.xlsx
+++ b/src/raw_data/TG_errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD8F071-44CD-F34B-B9B7-1ECF436345A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F899729-FA9E-AB4A-8B8D-08FADCCD4488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$95</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="271">
   <si>
     <t>Error_ID</t>
   </si>
@@ -845,50 +845,44 @@
     <t>#TORE</t>
   </si>
   <si>
-    <t>TOVARNIŠKA CESTA</t>
-  </si>
-  <si>
-    <t>TOVARNI#KA CESTA, TOVARNIšKA CESTA</t>
-  </si>
-  <si>
-    <t>Invalid characters + Duplikates</t>
-  </si>
-  <si>
-    <t>OBRTNIŠKA ULICA, OBRTNIšKA ULICA</t>
-  </si>
-  <si>
     <t>BEZENŠKOVA ULICA</t>
   </si>
   <si>
-    <t>BEZEN#KOVA ULICA</t>
-  </si>
-  <si>
     <t>ŠARANOVČEVA CESTA</t>
   </si>
   <si>
-    <t>#ARANOVČEVA CESTA</t>
-  </si>
-  <si>
     <t>GORIŠKI VRH</t>
   </si>
   <si>
-    <t>GORIšKI VRH</t>
-  </si>
-  <si>
-    <t>Inconsistent letters (capital vs. small)</t>
-  </si>
-  <si>
     <t>ŽEBLJARSKA POT</t>
   </si>
   <si>
-    <t>\@EBLJARSKA POT</t>
+    <t>Invalid digit in Street</t>
+  </si>
+  <si>
+    <t>Ends with full stop</t>
+  </si>
+  <si>
+    <t>More than one number present</t>
+  </si>
+  <si>
+    <t>Does not start with digit</t>
+  </si>
+  <si>
+    <t>More than 4 digits</t>
+  </si>
+  <si>
+    <t>GORIšNICA</t>
+  </si>
+  <si>
+    <t>4407</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -945,8 +939,15 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,6 +957,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -983,12 +989,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -1032,8 +1039,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
@@ -1368,11 +1381,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D76" sqref="D76:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1464,7 +1477,7 @@
         <v>91</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>_xlfn.CONCAT(C3,": ", B3)</f>
+        <f t="shared" ref="D3:D57" si="0">_xlfn.CONCAT(C3,": ", B3)</f>
         <v>NAME: Unnecessary Spaces</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1480,7 +1493,7 @@
         <v>0.05</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M65" si="0">_xlfn.CONCAT("'",A3,"': '",D3,"',")</f>
+        <f t="shared" ref="M3:M65" si="1">_xlfn.CONCAT("'",A3,"': '",D3,"',")</f>
         <v>'1102': 'NAME: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -1495,7 +1508,7 @@
         <v>91</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>_xlfn.CONCAT(C4,": ", B4)</f>
+        <f t="shared" si="0"/>
         <v>NAME: Invalid Characters</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1511,7 +1524,7 @@
         <v>0.02</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1103': 'NAME: Invalid Characters',</v>
       </c>
     </row>
@@ -1526,7 +1539,7 @@
         <v>91</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>_xlfn.CONCAT(C5,": ", B5)</f>
+        <f t="shared" si="0"/>
         <v>NAME: Formatting Issue</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1540,7 +1553,7 @@
         <v>0.03</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1104': 'NAME: Formatting Issue',</v>
       </c>
     </row>
@@ -1555,7 +1568,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>_xlfn.CONCAT(C6,": ", B6)</f>
+        <f t="shared" si="0"/>
         <v>NAME: Duplicates</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1571,7 +1584,7 @@
         <v>0.05</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1105': 'NAME: Duplicates',</v>
       </c>
     </row>
@@ -1586,7 +1599,7 @@
         <v>91</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>_xlfn.CONCAT(C7,": ", B7)</f>
+        <f t="shared" si="0"/>
         <v>NAME: Two names in one field</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1598,7 +1611,7 @@
         <v>0.02</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1106': 'NAME: Two names in one field',</v>
       </c>
     </row>
@@ -1613,7 +1626,7 @@
         <v>95</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>_xlfn.CONCAT(C8,": ", B8)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: Missing Data</v>
       </c>
       <c r="E8" s="12" t="s">
@@ -1627,7 +1640,7 @@
         <v>0.01</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1201': 'SURNAME: Missing Data',</v>
       </c>
     </row>
@@ -1642,7 +1655,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>_xlfn.CONCAT(C9,": ", B9)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: Unnecessary Spaces</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1658,7 +1671,7 @@
         <v>0.01</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1202': 'SURNAME: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -1673,7 +1686,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>_xlfn.CONCAT(C10,": ", B10)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: Invalid Characters</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -1689,7 +1702,7 @@
         <v>0.05</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1203': 'SURNAME: Invalid Characters',</v>
       </c>
     </row>
@@ -1704,7 +1717,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>_xlfn.CONCAT(C11,": ", B11)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: Formatting Issue</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1715,7 +1728,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="M11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1204': 'SURNAME: Formatting Issue',</v>
       </c>
     </row>
@@ -1730,7 +1743,7 @@
         <v>95</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>_xlfn.CONCAT(C12,": ", B12)</f>
+        <f t="shared" si="0"/>
         <v>SURNAME: Duplicates</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -1746,7 +1759,7 @@
         <v>0.05</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'1205': 'SURNAME: Duplicates',</v>
       </c>
     </row>
@@ -1761,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f t="shared" ref="D13:D65" si="1">_xlfn.CONCAT(C13,": ", B13)</f>
+        <f t="shared" si="0"/>
         <v>EMAIL: Missing Data</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1775,7 +1788,7 @@
         <v>0.01</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
@@ -1790,7 +1803,7 @@
         <v>101</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>EMAIL: Missing Data</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1803,7 +1816,7 @@
         <v>85</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
@@ -1818,7 +1831,7 @@
         <v>101</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>EMAIL: Unnecessary Spaces</v>
       </c>
       <c r="E15" s="4"/>
@@ -1828,7 +1841,7 @@
         <v>0.01</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2102': 'EMAIL: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -1843,7 +1856,7 @@
         <v>101</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>EMAIL: Invalid Characters</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1859,7 +1872,7 @@
         <v>0.01</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2103': 'EMAIL: Invalid Characters',</v>
       </c>
     </row>
@@ -1874,7 +1887,7 @@
         <v>101</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>EMAIL: Invalid Characters</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1888,7 +1901,7 @@
         <v>0.01</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2103': 'EMAIL: Invalid Characters',</v>
       </c>
     </row>
@@ -1903,7 +1916,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>EMAIL: Formatting Issue</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1917,7 +1930,7 @@
         <v>0.01</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2104': 'EMAIL: Formatting Issue',</v>
       </c>
     </row>
@@ -1932,7 +1945,7 @@
         <v>101</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>EMAIL: Possibly Two Emails</v>
       </c>
       <c r="E19" s="9" t="s">
@@ -1946,7 +1959,7 @@
         <v>0.01</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2105': 'EMAIL: Possibly Two Emails',</v>
       </c>
     </row>
@@ -1961,7 +1974,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>EMAIL: Possibly Invalid domain</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1975,7 +1988,7 @@
         <v>0.01</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'2106': 'EMAIL: Possibly Invalid domain',</v>
       </c>
     </row>
@@ -1990,7 +2003,7 @@
         <v>104</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>PHONE: Missing Data</v>
       </c>
       <c r="E21" s="8" t="s">
@@ -2006,7 +2019,7 @@
         <v>0.01</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3101': 'PHONE: Missing Data',</v>
       </c>
     </row>
@@ -2021,7 +2034,7 @@
         <v>104</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>PHONE: Missing Data</v>
       </c>
       <c r="E22" s="13" t="s">
@@ -2037,7 +2050,7 @@
         <v>0.01</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3101': 'PHONE: Missing Data',</v>
       </c>
     </row>
@@ -2052,14 +2065,14 @@
         <v>104</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>PHONE: Unnecessary Spaces</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="M23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3102': 'PHONE: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -2074,7 +2087,7 @@
         <v>104</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>PHONE: Invalid characters</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -2088,7 +2101,7 @@
         <v>0.01</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3103': 'PHONE: Invalid characters',</v>
       </c>
     </row>
@@ -2103,7 +2116,7 @@
         <v>104</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>PHONE: Formatting Issue</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -2117,7 +2130,7 @@
         <v>0.01</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3104': 'PHONE: Formatting Issue',</v>
       </c>
     </row>
@@ -2132,7 +2145,7 @@
         <v>104</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>PHONE: Too many digits</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -2144,7 +2157,7 @@
         <v>0.01</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3105': 'PHONE: Too many digits',</v>
       </c>
     </row>
@@ -2159,14 +2172,14 @@
         <v>104</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>PHONE: Too little digits</v>
       </c>
       <c r="K27">
         <v>0.03</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3106': 'PHONE: Too little digits',</v>
       </c>
     </row>
@@ -2181,7 +2194,7 @@
         <v>104</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>PHONE: Two phone numbers</v>
       </c>
       <c r="E28" s="8" t="s">
@@ -2193,7 +2206,7 @@
         <v>0.02</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3107': 'PHONE: Two phone numbers',</v>
       </c>
     </row>
@@ -2208,7 +2221,7 @@
         <v>104</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>PHONE: Different country format</v>
       </c>
       <c r="E29" s="13" t="s">
@@ -2222,7 +2235,7 @@
         <v>0.05</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'3108': 'PHONE: Different country format',</v>
       </c>
     </row>
@@ -2237,7 +2250,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>STREET_NAME: Missing Data</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -2251,7 +2264,7 @@
         <v>0.01</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
@@ -2266,7 +2279,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>STREET_NAME: Missing Data</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -2280,7 +2293,7 @@
         <v>0.03</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
@@ -2295,7 +2308,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>STREET_NAME: Unnecessary Spaces</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2311,7 +2324,7 @@
         <v>0.01</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4102': 'STREET_NAME: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -2326,7 +2339,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>STREET_NAME: Invalid characters</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -2340,128 +2353,111 @@
         <v>0.01</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>4104</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>230</v>
+      <c r="A34" s="19">
+        <v>4103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Contains house number</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>77</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid characters</v>
+      </c>
+      <c r="E34" t="s">
+        <v>263</v>
       </c>
       <c r="K34">
         <v>0.01</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="0"/>
-        <v>'4104': 'STREET_NAME: Contains house number',</v>
+        <f t="shared" si="1"/>
+        <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>4104</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>230</v>
+      <c r="A35" s="19">
+        <v>4103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>152</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Contains house number</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid characters</v>
+      </c>
+      <c r="E35" t="s">
+        <v>261</v>
+      </c>
       <c r="K35">
         <v>0.01</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="0"/>
-        <v>'4104': 'STREET_NAME: Contains house number',</v>
+        <f t="shared" si="1"/>
+        <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>4104</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>230</v>
+      <c r="A36" s="19">
+        <v>4103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Contains house number</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>63</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid characters</v>
+      </c>
+      <c r="E36" t="s">
+        <v>260</v>
       </c>
       <c r="K36">
         <v>0.05</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="0"/>
-        <v>'4104': 'STREET_NAME: Contains house number',</v>
+        <f t="shared" si="1"/>
+        <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>4105</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>229</v>
+      <c r="A37" s="19">
+        <v>4104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Contains variation of BŠ</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Formatting Issue</v>
+      </c>
+      <c r="E37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" t="s">
+        <v>250</v>
       </c>
       <c r="K37">
         <v>0.05</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="0"/>
-        <v>'4105': 'STREET_NAME: Contains variation of BŠ',</v>
+        <f t="shared" si="1"/>
+        <v>'4104': 'STREET_NAME: Formatting Issue',</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2469,206 +2465,210 @@
         <v>4105</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Contains variation of BŠ</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="K38">
         <v>0.01</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="0"/>
-        <v>'4105': 'STREET_NAME: Contains variation of BŠ',</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>'4105': 'STREET_NAME: Contains house number',</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>4106</v>
+        <v>4105</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>157</v>
+        <v>230</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Invalid abbreviations</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
       <c r="K39">
         <v>0.01</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="0"/>
-        <v>'4106': 'STREET_NAME: Invalid abbreviations',</v>
+        <f t="shared" si="1"/>
+        <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: No space after full stop</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="K40">
         <v>0.05</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="0"/>
-        <v>'4107': 'STREET_NAME: No space after full stop',</v>
+        <f t="shared" si="1"/>
+        <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>4108</v>
+        <v>4106</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Only numbers</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains variation of BŠ</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="K41">
         <v>0.03</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="0"/>
-        <v>'4108': 'STREET_NAME: Only numbers',</v>
+        <f t="shared" si="1"/>
+        <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>4109</v>
+        <v>4106</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Duplicates</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains variation of BŠ</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="K42">
         <v>0.05</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="0"/>
-        <v>'4109': 'STREET_NAME: Duplicates',</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Duplicates</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid abbreviations</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="K43">
         <v>0.05</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="0"/>
-        <v>'4109': 'STREET_NAME: Duplicates',</v>
+        <f t="shared" si="1"/>
+        <v>'4107': 'STREET_NAME: Invalid abbreviations',</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>4109</v>
+        <v>4108</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Duplicates</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: No space after full stop</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G44" s="3"/>
       <c r="K44">
         <v>0.03</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="0"/>
-        <v>'4109': 'STREET_NAME: Duplicates',</v>
+        <f t="shared" si="1"/>
+        <v>'4108': 'STREET_NAME: No space after full stop',</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2676,35 +2676,31 @@
         <v>4109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Duplicates</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>63</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Only numbers</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
       <c r="K45">
         <v>0.01</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="0"/>
-        <v>'4109': 'STREET_NAME: Duplicates',</v>
+        <f t="shared" si="1"/>
+        <v>'4109': 'STREET_NAME: Only numbers',</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>70</v>
@@ -2713,29 +2709,27 @@
         <v>11</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G46" s="3"/>
       <c r="K46">
         <v>0.01</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="0"/>
-        <v>'4109': 'STREET_NAME: Duplicates',</v>
+        <f t="shared" si="1"/>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>70</v>
@@ -2744,29 +2738,27 @@
         <v>11</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>63</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G47" s="3"/>
       <c r="K47">
         <v>0.01</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="0"/>
-        <v>'4109': 'STREET_NAME: Duplicates',</v>
+        <f t="shared" si="1"/>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>70</v>
@@ -2775,14 +2767,14 @@
         <v>11</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>63</v>
@@ -2791,13 +2783,13 @@
         <v>0.01</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="0"/>
-        <v>'4109': 'STREET_NAME: Duplicates',</v>
+        <f t="shared" si="1"/>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>70</v>
@@ -2806,14 +2798,14 @@
         <v>11</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>63</v>
@@ -2822,8 +2814,8 @@
         <v>0.01</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="0"/>
-        <v>'4109': 'STREET_NAME: Duplicates',</v>
+        <f t="shared" si="1"/>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -2831,476 +2823,475 @@
         <v>4110</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Starts with number</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="K50">
         <v>0.01</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="0"/>
-        <v>'4110': 'STREET_NAME: Starts with number',</v>
+        <f t="shared" si="1"/>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: More than 2 commas</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="K51">
         <v>0.01</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="0"/>
-        <v>'4111': 'STREET_NAME: More than 2 commas',</v>
+        <f t="shared" si="1"/>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>4112</v>
+        <v>4110</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>235</v>
+        <v>70</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>STREET_NAME: Cannot contain digit at the end</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="K52">
         <v>0.01</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="0"/>
-        <v>'4112': 'STREET_NAME: Cannot contain digit at the end',</v>
+        <f t="shared" si="1"/>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>4201</v>
+        <v>4110</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: Missing Data</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="K53">
         <v>0.01</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="0"/>
-        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
+        <f t="shared" si="1"/>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>4201</v>
+        <v>4110</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: Missing Data</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="3"/>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="F54" t="s">
+        <v>250</v>
+      </c>
       <c r="K54">
         <v>0.01</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="0"/>
-        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
+        <f t="shared" si="1"/>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>4202</v>
+        <v>4111</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: Unnecessary spaces</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="3">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Starts with number</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G55" s="3"/>
       <c r="K55">
         <v>0.01</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="0"/>
-        <v>'4202': 'HOUSE_NUMBER: Unnecessary spaces',</v>
+        <f t="shared" si="1"/>
+        <v>'4111': 'STREET_NAME: Starts with number',</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>4203</v>
+        <v>4112</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>38</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: More than 2 commas</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
       <c r="K56">
         <v>0.01</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="0"/>
-        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
+        <f t="shared" si="1"/>
+        <v>'4112': 'STREET_NAME: More than 2 commas',</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>4203</v>
+        <v>4113</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Cannot contain digit at the end</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
       <c r="K57">
         <v>0.01</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="0"/>
-        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
+        <f t="shared" si="1"/>
+        <v>'4113': 'STREET_NAME: Cannot contain digit at the end',</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>4203</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>229</v>
+      <c r="A58" s="19">
+        <v>4114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>264</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3">
-        <v>34</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>49</v>
+        <f>_xlfn.CONCAT(C58,": ", B58)</f>
+        <v>STREET_NAME: Invalid digit in Street</v>
       </c>
       <c r="K58">
         <v>0.01</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="0"/>
-        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
+        <f t="shared" si="1"/>
+        <v>'4114': 'STREET_NAME: Invalid digit in Street',</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>4204</v>
+        <v>4201</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: No house number</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" s="3"/>
+        <f>_xlfn.CONCAT(C59,": ", B59)</f>
+        <v>HOUSE_NUMBER: Missing Data</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G59" s="3"/>
       <c r="K59">
         <v>0.01</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" si="0"/>
-        <v>'4204': 'HOUSE_NUMBER: No house number',</v>
+        <f t="shared" si="1"/>
+        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>4204</v>
+        <v>4201</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>236</v>
+        <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: No house number</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3">
-        <v>34</v>
+        <f t="shared" ref="D60:D72" si="2">_xlfn.CONCAT(C60,": ", B60)</f>
+        <v>HOUSE_NUMBER: Missing Data</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G60" s="3"/>
       <c r="K60">
         <v>0.01</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="0"/>
-        <v>'4204': 'HOUSE_NUMBER: No house number',</v>
+        <f t="shared" si="1"/>
+        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>4205</v>
+        <v>4202</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: invalid combination</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="3"/>
+        <f t="shared" si="2"/>
+        <v>HOUSE_NUMBER: Unnecessary spaces</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="3">
+        <v>2</v>
+      </c>
       <c r="G61" s="3"/>
       <c r="K61">
         <v>0.01</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="0"/>
-        <v>'4205': 'HOUSE_NUMBER: invalid combination',</v>
+        <f t="shared" si="1"/>
+        <v>'4202': 'HOUSE_NUMBER: Unnecessary spaces',</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>4206</v>
+        <v>4203</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: Leading 0</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="3">
-        <v>7</v>
-      </c>
-      <c r="G62" s="3"/>
+        <f t="shared" si="2"/>
+        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="K62">
         <v>0.01</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="0"/>
-        <v>'4206': 'HOUSE_NUMBER: Leading 0',</v>
+        <f t="shared" si="1"/>
+        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>4207</v>
+        <v>4203</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: Spacing between components</v>
+        <f t="shared" si="2"/>
+        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G63" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="F63" s="3">
+        <v>6</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="K63">
         <v>0.01</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="0"/>
-        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
+        <f t="shared" si="1"/>
+        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>4207</v>
+        <v>4203</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: Spacing between components</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G64" s="3"/>
+        <f t="shared" si="2"/>
+        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
+      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3">
+        <v>34</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="K64">
         <v>0.01</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="0"/>
-        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
+        <f t="shared" si="1"/>
+        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>4207</v>
+        <v>4204</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>HOUSE_NUMBER: Spacing between components</v>
+        <f t="shared" si="2"/>
+        <v>HOUSE_NUMBER: No house number</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="K65">
         <v>0.01</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="0"/>
-        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
+        <f t="shared" si="1"/>
+        <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>4208</v>
+        <v>4204</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" ref="D66:D80" si="2">_xlfn.CONCAT(C66,": ", B66)</f>
-        <v>HOUSE_NUMBER: Contains roman numerals</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>55</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>HOUSE_NUMBER: No house number</v>
+      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G66" s="3"/>
       <c r="K66">
@@ -3308,121 +3299,113 @@
       </c>
       <c r="M66" t="str">
         <f t="shared" ref="M66:M80" si="3">_xlfn.CONCAT("'",A66,"': '",D66,"',")</f>
-        <v>'4208': 'HOUSE_NUMBER: Contains roman numerals',</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>'4204': 'HOUSE_NUMBER: No house number',</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>4301</v>
+        <v>4205</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D67" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: Missing Data</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>HOUSE_NUMBER: invalid combination</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
       <c r="K67">
         <v>0.05</v>
       </c>
       <c r="M67" t="str">
         <f t="shared" si="3"/>
-        <v>'4301': 'ZIPCODE: Missing Data',</v>
+        <v>'4205': 'HOUSE_NUMBER: invalid combination',</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>4302</v>
+        <v>4206</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>67</v>
+        <v>237</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D68" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: Unnecessary Spaces</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>114</v>
+        <v>HOUSE_NUMBER: Leading 0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="F68" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G68" s="3"/>
       <c r="K68">
         <v>0.03</v>
       </c>
       <c r="M68" t="str">
         <f t="shared" si="3"/>
-        <v>'4302': 'ZIPCODE: Unnecessary Spaces',</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>'4206': 'HOUSE_NUMBER: Leading 0',</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>4303</v>
+        <v>4207</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: invalid characters</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F69" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>HOUSE_NUMBER: Spacing between components</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" s="3"/>
       <c r="K69">
         <v>0.01</v>
       </c>
       <c r="M69" t="str">
         <f t="shared" si="3"/>
-        <v>'4303': 'ZIPCODE: invalid characters',</v>
+        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>4304</v>
+        <v>4207</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: Less than 4</v>
-      </c>
-      <c r="E70" s="3">
-        <v>231</v>
+        <v>HOUSE_NUMBER: Spacing between components</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G70" s="3"/>
       <c r="K70">
@@ -3430,28 +3413,28 @@
       </c>
       <c r="M70" t="str">
         <f t="shared" si="3"/>
-        <v>'4304': 'ZIPCODE: Less than 4',</v>
+        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>4305</v>
+        <v>4207</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: More than 4</v>
-      </c>
-      <c r="E71" s="3">
-        <v>12098</v>
+        <v>HOUSE_NUMBER: Spacing between components</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G71" s="3"/>
       <c r="K71">
@@ -3459,389 +3442,549 @@
       </c>
       <c r="M71" t="str">
         <f t="shared" si="3"/>
-        <v>'4305': 'ZIPCODE: More than 4',</v>
+        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>4306</v>
+        <v>4208</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D72" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>ZIPCODE: Contains Letters</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>64</v>
+        <v>HOUSE_NUMBER: Contains roman numerals</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="F72" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G72" s="3"/>
       <c r="K72">
         <v>0.01</v>
       </c>
       <c r="M72" t="str">
         <f t="shared" si="3"/>
-        <v>'4306': 'ZIPCODE: Contains Letters',</v>
+        <v>'4208': 'HOUSE_NUMBER: Contains roman numerals',</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>4307</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>6</v>
+      <c r="A73" s="19">
+        <v>4209</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>ZIPCODE: Invalid Value</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" s="3"/>
+        <f>_xlfn.CONCAT(C73,": ", B73)</f>
+        <v>HOUSE_NUMBER: Ends with full stop</v>
+      </c>
       <c r="K73">
         <v>0.05</v>
       </c>
       <c r="M73" t="str">
         <f t="shared" si="3"/>
-        <v>'4307': 'ZIPCODE: Invalid Value',</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>4401</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>99</v>
+        <v>'4209': 'HOUSE_NUMBER: Ends with full stop',</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="19">
+        <v>4210</v>
+      </c>
+      <c r="B74" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Missing Data</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>84</v>
+        <f t="shared" ref="D74:D94" si="4">_xlfn.CONCAT(C74,": ", B74)</f>
+        <v>HOUSE_NUMBER: More than one number present</v>
       </c>
       <c r="K74">
         <v>0.01</v>
       </c>
       <c r="M74" t="str">
         <f t="shared" si="3"/>
-        <v>'4401': 'POSTAL_CITY: Missing Data',</v>
+        <v>'4210': 'HOUSE_NUMBER: More than one number present',</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>4402</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>67</v>
+      <c r="A75" s="19">
+        <v>4211</v>
+      </c>
+      <c r="B75" t="s">
+        <v>267</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Unnecessary Spaces</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>HOUSE_NUMBER: Does not start with digit</v>
       </c>
       <c r="K75">
         <v>0.03</v>
       </c>
       <c r="M75" t="str">
         <f t="shared" si="3"/>
-        <v>'4402': 'POSTAL_CITY: Unnecessary Spaces',</v>
+        <v>'4211': 'HOUSE_NUMBER: Does not start with digit',</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
-        <v>241</v>
+      <c r="A76" s="19">
+        <v>4212</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Invalid characters</v>
+        <f t="shared" si="4"/>
+        <v>HOUSE_NUMBER: More than 4 digits</v>
       </c>
       <c r="M76" t="str">
         <f t="shared" si="3"/>
-        <v>'4403': 'POSTAL_CITY: Invalid characters',</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B77" t="s">
-        <v>240</v>
+        <v>'4212': 'HOUSE_NUMBER: More than 4 digits',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>4301</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Contains digits</v>
+        <f t="shared" si="4"/>
+        <v>ZIPCODE: Missing Data</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="M77" t="str">
         <f t="shared" si="3"/>
-        <v>'4404': 'POSTAL_CITY: Contains digits',</v>
+        <v>'4301': 'ZIPCODE: Missing Data',</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B78" t="s">
-        <v>157</v>
+      <c r="A78" s="3">
+        <v>4302</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Invalid abbreviations</v>
+        <f t="shared" si="4"/>
+        <v>ZIPCODE: Unnecessary Spaces</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="M78" t="str">
         <f t="shared" si="3"/>
-        <v>'4405': 'POSTAL_CITY: Invalid abbreviations',</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B79" t="s">
-        <v>70</v>
+        <v>'4302': 'ZIPCODE: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>4303</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Duplicates</v>
+        <f t="shared" si="4"/>
+        <v>ZIPCODE: invalid characters</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="M79" t="str">
         <f t="shared" si="3"/>
-        <v>'4406': 'POSTAL_CITY: Duplicates',</v>
+        <v>'4303': 'ZIPCODE: invalid characters',</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
+      <c r="A80" s="3">
+        <v>4304</v>
+      </c>
       <c r="B80" s="3" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>NONE: Duplicate Row</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>ZIPCODE: Less than 4</v>
+      </c>
+      <c r="E80" s="3">
+        <v>231</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="G80" s="3"/>
       <c r="M80" t="str">
         <f t="shared" si="3"/>
-        <v>'': 'NONE: Duplicate Row',</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+        <v>'4304': 'ZIPCODE: Less than 4',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>4305</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>ZIPCODE: More than 4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>12098</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G81" s="3"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>4306</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>ZIPCODE: Contains Letters</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>4307</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>ZIPCODE: Invalid Value</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="3"/>
+    </row>
+    <row r="84" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>4401</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Missing Data</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>4402</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D85" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Unnecessary Spaces</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s">
-        <v>272</v>
-      </c>
-      <c r="E81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>270</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s">
-        <v>269</v>
-      </c>
-      <c r="E82" t="s">
-        <v>268</v>
-      </c>
-      <c r="F82" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s">
-        <v>267</v>
-      </c>
-      <c r="E83" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s">
-        <v>265</v>
-      </c>
-      <c r="E84" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>253</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s">
-        <v>263</v>
-      </c>
-      <c r="F85" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>262</v>
-      </c>
       <c r="C86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s">
-        <v>261</v>
-      </c>
-      <c r="E86" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="D86" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Invalid characters</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>241</v>
+      </c>
       <c r="B87" t="s">
         <v>152</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Invalid characters</v>
+      </c>
+      <c r="E87" t="s">
         <v>259</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>241</v>
+      </c>
       <c r="B88" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D88" t="s">
-        <v>257</v>
+      <c r="D88" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Invalid characters</v>
       </c>
       <c r="E88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F88" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
+        <v>242</v>
+      </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D89" t="s">
-        <v>255</v>
+      <c r="D89" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Formatting Issue</v>
       </c>
       <c r="E89" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="F89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
+        <v>243</v>
+      </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Contains digits</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B91" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Invalid abbreviations</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Duplicates</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Duplicates because of capital/small letters</v>
+      </c>
+      <c r="E93" t="s">
+        <v>257</v>
+      </c>
+      <c r="F93" t="s">
+        <v>256</v>
+      </c>
+      <c r="G93" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>POSTAL_CITY: Duplicates because of capital/small letters</v>
+      </c>
+      <c r="E94" t="s">
         <v>252</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F94" t="s">
         <v>251</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G94" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="3" t="str">
+        <f>_xlfn.CONCAT(C95,": ", B95)</f>
+        <v>NONE: Duplicate Row</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="3"/>
+    </row>
+    <row r="100" spans="1:1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J90" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
-      <sortCondition ref="A1:A80"/>
+  <autoFilter ref="A1:J96" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J96">
+      <sortCondition ref="A1:A96"/>
     </sortState>
   </autoFilter>
   <hyperlinks>

--- a/src/raw_data/TG_errors.xlsx
+++ b/src/raw_data/TG_errors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F899729-FA9E-AB4A-8B8D-08FADCCD4488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF951D98-F22F-D74D-8E6C-BE1C2DC69BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="268">
   <si>
     <t>Error_ID</t>
   </si>
@@ -788,18 +788,6 @@
     <t>Contains digits</t>
   </si>
   <si>
-    <t>4403</t>
-  </si>
-  <si>
-    <t>4404</t>
-  </si>
-  <si>
-    <t>4405</t>
-  </si>
-  <si>
-    <t>4406</t>
-  </si>
-  <si>
     <t>More than 4</t>
   </si>
   <si>
@@ -824,9 +812,6 @@
     <t>GORIšNICA, GORIŠNICA</t>
   </si>
   <si>
-    <t>Duplicates because of capital/small letters</t>
-  </si>
-  <si>
     <t>DOMŽALE</t>
   </si>
   <si>
@@ -875,7 +860,13 @@
     <t>GORIšNICA</t>
   </si>
   <si>
-    <t>4407</t>
+    <t>Initials present</t>
+  </si>
+  <si>
+    <t>replacing šćčž to scz</t>
+  </si>
+  <si>
+    <t>4408</t>
   </si>
 </sst>
 </file>
@@ -995,12 +986,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1038,11 +1026,20 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1051,7 +1048,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1062,6 +1090,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}" name="Table1" displayName="Table1" ref="A1:K100" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K100" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K99">
+    <sortCondition ref="A1:A99"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{2381EC1C-CAEF-2B40-A59E-3E318B240A84}" name="error_id" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A8B0951A-B83C-224F-9776-261B20693A5F}" name="Error_Type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5F6EE275-B06B-D044-9213-1205CBFA14D6}" name="column_affected" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4B1FD788-5474-4749-8D5C-9A395B22974C}" name="ERROR_MESSAGE" dataDxfId="2">
+      <calculatedColumnFormula>_xlfn.CONCAT(C2,": ", B2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{ED719A00-3047-5043-8427-7ABA43E85CD1}" name="Original_Value"/>
+    <tableColumn id="6" xr3:uid="{572C25BA-2080-654B-B786-4CE23ED52391}" name="New_Value"/>
+    <tableColumn id="7" xr3:uid="{A28A65BE-6B75-8E4F-ABA4-5DFF1F0F2833}" name="Comment"/>
+    <tableColumn id="8" xr3:uid="{2C4436ED-CA11-0743-BF98-503285104AA0}" name="Detection"/>
+    <tableColumn id="9" xr3:uid="{0FA83269-B74C-C244-93C6-DCAD38560195}" name="Correction"/>
+    <tableColumn id="10" xr3:uid="{7AF32C96-837B-4F40-B77B-47503E91C3AE}" name="Regex"/>
+    <tableColumn id="11" xr3:uid="{589D48AE-D440-EE47-8784-0EE44759AA06}" name="Probability"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1381,29 +1434,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D76" sqref="D76:D94"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="22" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>227</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1413,7 +1467,7 @@
         <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1433,31 +1487,31 @@
       <c r="J1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="17">
         <v>1101</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="2" t="str">
         <f>_xlfn.CONCAT(C2,": ", B2)</f>
         <v>NAME: Missing Data</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="2"/>
       <c r="K2">
         <v>0.01</v>
       </c>
@@ -1467,57 +1521,57 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="17">
         <v>1102</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D57" si="0">_xlfn.CONCAT(C3,": ", B3)</f>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D61" si="0">_xlfn.CONCAT(C3,": ", B3)</f>
         <v>NAME: Unnecessary Spaces</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="K3">
         <v>0.05</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M65" si="1">_xlfn.CONCAT("'",A3,"': '",D3,"',")</f>
+        <f t="shared" ref="M3:M67" si="1">_xlfn.CONCAT("'",A3,"': '",D3,"',")</f>
         <v>'1102': 'NAME: Unnecessary Spaces',</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="17">
         <v>1103</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NAME: Invalid Characters</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K4">
@@ -1529,26 +1583,26 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="17">
         <v>1104</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NAME: Formatting Issue</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
       <c r="K5">
         <v>0.03</v>
       </c>
@@ -1558,26 +1612,26 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="17">
         <v>1105</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NAME: Duplicates</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>75</v>
       </c>
       <c r="K6">
@@ -1589,24 +1643,24 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="17">
         <v>1106</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>NAME: Two names in one field</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="K7">
         <v>0.02</v>
       </c>
@@ -1615,1201 +1669,1170 @@
         <v>'1106': 'NAME: Two names in one field',</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>1107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NAME: Initials present</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v>'1107': 'NAME: Initials present',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>1108</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NAME: replacing šćčž to scz</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v>'1108': 'NAME: replacing šćčž to scz',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>1201</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SURNAME: Missing Data</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="K8">
+      <c r="G10" s="2"/>
+      <c r="K10">
         <v>0.01</v>
       </c>
-      <c r="M8" t="str">
+      <c r="M10" t="str">
         <f t="shared" si="1"/>
         <v>'1201': 'SURNAME: Missing Data',</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="17">
         <v>1202</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SURNAME: Unnecessary Spaces</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K9">
+      <c r="K11">
         <v>0.01</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M11" t="str">
         <f t="shared" si="1"/>
         <v>'1202': 'SURNAME: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
         <v>1203</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>SURNAME: Invalid Characters</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="K10">
-        <v>0.05</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="1"/>
-        <v>'1203': 'SURNAME: Invalid Characters',</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>1204</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>SURNAME: Formatting Issue</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="M11" t="str">
-        <f t="shared" si="1"/>
-        <v>'1204': 'SURNAME: Formatting Issue',</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>1205</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>SURNAME: Duplicates</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="K12">
         <v>0.05</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
+        <v>'1203': 'SURNAME: Invalid Characters',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>1204</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SURNAME: Formatting Issue</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v>'1204': 'SURNAME: Formatting Issue',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>1205</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SURNAME: Duplicates</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14">
+        <v>0.05</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
         <v>'1205': 'SURNAME: Duplicates',</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>1208</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>SURNAME: replacing šćčž to scz</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v>'1208': 'SURNAME: replacing šćčž to scz',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
         <v>2101</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>EMAIL: Missing Data</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="K13">
-        <v>0.01</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="1"/>
-        <v>'2101': 'EMAIL: Missing Data',</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>2101</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EMAIL: Missing Data</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="1"/>
-        <v>'2101': 'EMAIL: Missing Data',</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>2102</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EMAIL: Unnecessary Spaces</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="K15">
-        <v>0.01</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="1"/>
-        <v>'2102': 'EMAIL: Unnecessary Spaces',</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>2103</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EMAIL: Invalid Characters</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="K16">
         <v>0.01</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
-        <v>'2103': 'EMAIL: Invalid Characters',</v>
+        <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>2103</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="17">
+        <v>2101</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EMAIL: Invalid Characters</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="K17">
-        <v>0.01</v>
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Missing Data</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
-        <v>'2103': 'EMAIL: Invalid Characters',</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>2104</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>'2101': 'EMAIL: Missing Data',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>2102</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EMAIL: Formatting Issue</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="3"/>
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Unnecessary Spaces</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
       <c r="K18">
         <v>0.01</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>'2104': 'EMAIL: Formatting Issue',</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>2105</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" s="3" t="s">
+        <v>'2102': 'EMAIL: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>2103</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EMAIL: Possibly Two Emails</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>87</v>
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Invalid Characters</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="K19">
         <v>0.01</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="1"/>
-        <v>'2105': 'EMAIL: Possibly Two Emails',</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>2106</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>'2103': 'EMAIL: Invalid Characters',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <v>2103</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>EMAIL: Possibly Invalid domain</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="3"/>
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Invalid Characters</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="2"/>
       <c r="K20">
         <v>0.01</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
-        <v>'2106': 'EMAIL: Possibly Invalid domain',</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>3101</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Missing Data</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>'2103': 'EMAIL: Invalid Characters',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <v>2104</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Formatting Issue</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="2"/>
       <c r="K21">
         <v>0.01</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
-        <v>'3101': 'PHONE: Missing Data',</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>3101</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Missing Data</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>88</v>
+        <v>'2104': 'EMAIL: Formatting Issue',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <v>2105</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Possibly Two Emails</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K22">
         <v>0.01</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
-        <v>'3101': 'PHONE: Missing Data',</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>3102</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="3" t="s">
+        <v>'2105': 'EMAIL: Possibly Two Emails',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <v>2106</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>EMAIL: Possibly Invalid domain</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="K23">
+        <v>0.01</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>'2106': 'EMAIL: Possibly Invalid domain',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>3101</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Unnecessary Spaces</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="M23" t="str">
-        <f t="shared" si="1"/>
-        <v>'3102': 'PHONE: Unnecessary Spaces',</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>3103</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Invalid characters</v>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Missing Data</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="K24">
         <v>0.01</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="1"/>
-        <v>'3103': 'PHONE: Invalid characters',</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>3104</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="3" t="s">
+        <v>'3101': 'PHONE: Missing Data',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>3101</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>PHONE: Formatting Issue</v>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Missing Data</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="K25">
         <v>0.01</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="1"/>
+        <v>'3101': 'PHONE: Missing Data',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>3102</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Unnecessary Spaces</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v>'3102': 'PHONE: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>3103</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Invalid characters</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="K27">
+        <v>0.01</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v>'3103': 'PHONE: Invalid characters',</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>3104</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHONE: Formatting Issue</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="K28">
+        <v>0.01</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
         <v>'3104': 'PHONE: Formatting Issue',</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="29" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
         <v>3105</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="3" t="str">
+      <c r="D29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PHONE: Too many digits</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E29" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="K26">
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="K29">
         <v>0.01</v>
       </c>
-      <c r="M26" t="str">
+      <c r="M29" t="str">
         <f t="shared" si="1"/>
         <v>'3105': 'PHONE: Too many digits',</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
         <v>3106</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="3" t="str">
+      <c r="D30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PHONE: Too little digits</v>
       </c>
-      <c r="K27">
+      <c r="K30">
         <v>0.03</v>
       </c>
-      <c r="M27" t="str">
+      <c r="M30" t="str">
         <f t="shared" si="1"/>
         <v>'3106': 'PHONE: Too little digits',</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
         <v>3107</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="3" t="str">
+      <c r="D31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PHONE: Two phone numbers</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="K28">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="K31">
         <v>0.02</v>
       </c>
-      <c r="M28" t="str">
+      <c r="M31" t="str">
         <f t="shared" si="1"/>
         <v>'3107': 'PHONE: Two phone numbers',</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
         <v>3108</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="3" t="str">
+      <c r="D32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>PHONE: Different country format</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K29">
+      <c r="K32">
         <v>0.05</v>
       </c>
-      <c r="M29" t="str">
+      <c r="M32" t="str">
         <f t="shared" si="1"/>
         <v>'3108': 'PHONE: Different country format',</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
         <v>4101</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="3" t="str">
+      <c r="D33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>STREET_NAME: Missing Data</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="K30">
-        <v>0.01</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="1"/>
-        <v>'4101': 'STREET_NAME: Missing Data',</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>4101</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Missing Data</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="K31">
-        <v>0.03</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="1"/>
-        <v>'4101': 'STREET_NAME: Missing Data',</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>4102</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Unnecessary Spaces</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32">
-        <v>0.01</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="1"/>
-        <v>'4102': 'STREET_NAME: Unnecessary Spaces',</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>4103</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Invalid characters</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="2"/>
       <c r="K33">
         <v>0.01</v>
       </c>
       <c r="M33" t="str">
         <f t="shared" si="1"/>
-        <v>'4103': 'STREET_NAME: Invalid characters',</v>
+        <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
-        <v>4103</v>
-      </c>
-      <c r="B34" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="A34" s="17">
+        <v>4101</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Invalid characters</v>
-      </c>
-      <c r="E34" t="s">
-        <v>263</v>
-      </c>
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Missing Data</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="2"/>
       <c r="K34">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M34" t="str">
         <f t="shared" si="1"/>
-        <v>'4103': 'STREET_NAME: Invalid characters',</v>
+        <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="19">
-        <v>4103</v>
-      </c>
-      <c r="B35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="A35" s="17">
+        <v>4102</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Invalid characters</v>
-      </c>
-      <c r="E35" t="s">
-        <v>261</v>
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Unnecessary Spaces</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="K35">
         <v>0.01</v>
       </c>
       <c r="M35" t="str">
         <f t="shared" si="1"/>
+        <v>'4102': 'STREET_NAME: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="17">
+        <v>4103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid characters</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="K36">
+        <v>0.01</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>4103</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="3" t="str">
+      <c r="D37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>STREET_NAME: Invalid characters</v>
       </c>
-      <c r="E36" t="s">
-        <v>260</v>
-      </c>
-      <c r="K36">
-        <v>0.05</v>
-      </c>
-      <c r="M36" t="str">
+      <c r="E37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37">
+        <v>0.01</v>
+      </c>
+      <c r="M37" t="str">
         <f t="shared" si="1"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="19">
-        <v>4104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="3" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Formatting Issue</v>
-      </c>
-      <c r="E37" t="s">
-        <v>262</v>
-      </c>
-      <c r="F37" t="s">
-        <v>250</v>
-      </c>
-      <c r="K37">
-        <v>0.05</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="1"/>
-        <v>'4104': 'STREET_NAME: Formatting Issue',</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>4105</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Contains house number</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>77</v>
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid characters</v>
+      </c>
+      <c r="E38" t="s">
+        <v>256</v>
       </c>
       <c r="K38">
         <v>0.01</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="1"/>
-        <v>'4105': 'STREET_NAME: Contains house number',</v>
+        <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>4105</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="A39">
+        <v>4103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Contains house number</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid characters</v>
+      </c>
+      <c r="E39" t="s">
+        <v>255</v>
+      </c>
       <c r="K39">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="1"/>
-        <v>'4105': 'STREET_NAME: Contains house number',</v>
+        <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>4105</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="A40">
+        <v>4104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Contains house number</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>63</v>
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Formatting Issue</v>
+      </c>
+      <c r="E40" t="s">
+        <v>257</v>
+      </c>
+      <c r="F40" t="s">
+        <v>246</v>
       </c>
       <c r="K40">
         <v>0.05</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="1"/>
+        <v>'4104': 'STREET_NAME: Formatting Issue',</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="17">
+        <v>4105</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains house number</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K41">
+        <v>0.01</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="1"/>
         <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>4106</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="3" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="17">
+        <v>4105</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Contains variation of BŠ</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains house number</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="K42">
+        <v>0.01</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v>'4105': 'STREET_NAME: Contains house number',</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="17">
+        <v>4105</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains house number</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K41">
-        <v>0.03</v>
-      </c>
-      <c r="M41" t="str">
-        <f t="shared" si="1"/>
-        <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>4106</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Contains variation of BŠ</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K42">
-        <v>0.05</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="1"/>
-        <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>4107</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Invalid abbreviations</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>123</v>
+      <c r="G43" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K43">
         <v>0.05</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="1"/>
-        <v>'4107': 'STREET_NAME: Invalid abbreviations',</v>
+        <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>4108</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="A44" s="17">
+        <v>4106</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: No space after full stop</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="3"/>
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains variation of BŠ</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="K44">
         <v>0.03</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="1"/>
+        <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="17">
+        <v>4106</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Contains variation of BŠ</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45">
+        <v>0.05</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="1"/>
+        <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A46" s="17">
+        <v>4107</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid abbreviations</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K46">
+        <v>0.05</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="1"/>
+        <v>'4107': 'STREET_NAME: Invalid abbreviations',</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="17">
+        <v>4108</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: No space after full stop</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="K47">
+        <v>0.03</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="1"/>
         <v>'4108': 'STREET_NAME: No space after full stop',</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="17">
         <v>4109</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="3" t="str">
+      <c r="D48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>STREET_NAME: Only numbers</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="K45">
-        <v>0.01</v>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" si="1"/>
-        <v>'4109': 'STREET_NAME: Only numbers',</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>4110</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Duplicates</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="K46">
-        <v>0.01</v>
-      </c>
-      <c r="M46" t="str">
-        <f t="shared" si="1"/>
-        <v>'4110': 'STREET_NAME: Duplicates',</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>4110</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Duplicates</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="K47">
-        <v>0.01</v>
-      </c>
-      <c r="M47" t="str">
-        <f t="shared" si="1"/>
-        <v>'4110': 'STREET_NAME: Duplicates',</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>4110</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Duplicates</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="K48">
         <v>0.01</v>
       </c>
       <c r="M48" t="str">
         <f t="shared" si="1"/>
-        <v>'4110': 'STREET_NAME: Duplicates',</v>
+        <v>'4109': 'STREET_NAME: Only numbers',</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="17">
         <v>4110</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="3" t="str">
+      <c r="D49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="E49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="2"/>
       <c r="K49">
         <v>0.01</v>
       </c>
@@ -2819,28 +2842,26 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="17">
         <v>4110</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="3" t="str">
+      <c r="D50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="E50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="2"/>
       <c r="K50">
         <v>0.01</v>
       </c>
@@ -2850,26 +2871,26 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="17">
         <v>4110</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="3" t="str">
+      <c r="D51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="E51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="K51">
@@ -2881,26 +2902,26 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="17">
         <v>4110</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="3" t="str">
+      <c r="D52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>63</v>
       </c>
       <c r="K52">
@@ -2912,26 +2933,26 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="17">
         <v>4110</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="3" t="str">
+      <c r="D53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G53" s="3" t="s">
+      <c r="E53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="K53">
@@ -2943,21 +2964,27 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="17">
         <v>4110</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="3" t="str">
+      <c r="D54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>STREET_NAME: Duplicates</v>
       </c>
-      <c r="F54" t="s">
-        <v>250</v>
+      <c r="E54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K54">
         <v>0.01</v>
@@ -2968,1034 +2995,1141 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>4111</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="A55" s="17">
+        <v>4110</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Starts with number</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G55" s="3"/>
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="K55">
         <v>0.01</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="1"/>
-        <v>'4111': 'STREET_NAME: Starts with number',</v>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>4112</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="A56" s="17">
+        <v>4110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: More than 2 commas</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="D56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="K56">
         <v>0.01</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="1"/>
-        <v>'4112': 'STREET_NAME: More than 2 commas',</v>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>4113</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="A57" s="17">
+        <v>4110</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D57" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Cannot contain digit at the end</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Duplicates</v>
+      </c>
+      <c r="F57" t="s">
+        <v>246</v>
+      </c>
       <c r="K57">
         <v>0.01</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="1"/>
-        <v>'4113': 'STREET_NAME: Cannot contain digit at the end',</v>
+        <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="19">
-        <v>4114</v>
-      </c>
-      <c r="B58" t="s">
-        <v>264</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="A58" s="17">
+        <v>4111</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="3" t="str">
-        <f>_xlfn.CONCAT(C58,": ", B58)</f>
-        <v>STREET_NAME: Invalid digit in Street</v>
-      </c>
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Starts with number</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="2"/>
       <c r="K58">
         <v>0.01</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="1"/>
-        <v>'4114': 'STREET_NAME: Invalid digit in Street',</v>
+        <v>'4111': 'STREET_NAME: Starts with number',</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>4201</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="3" t="str">
-        <f>_xlfn.CONCAT(C59,": ", B59)</f>
-        <v>HOUSE_NUMBER: Missing Data</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="3"/>
+      <c r="A59" s="17">
+        <v>4112</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: More than 2 commas</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
       <c r="K59">
         <v>0.01</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="1"/>
-        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
+        <v>'4112': 'STREET_NAME: More than 2 commas',</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>4201</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="3" t="str">
-        <f t="shared" ref="D60:D72" si="2">_xlfn.CONCAT(C60,": ", B60)</f>
-        <v>HOUSE_NUMBER: Missing Data</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="3"/>
+      <c r="A60" s="17">
+        <v>4113</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Cannot contain digit at the end</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
       <c r="K60">
         <v>0.01</v>
       </c>
-      <c r="M60" t="str">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>259</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>STREET_NAME: Invalid digit in Street</v>
+      </c>
+      <c r="K61">
+        <v>0.01</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="1"/>
+        <v>'4114': 'STREET_NAME: Invalid digit in Street',</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>4115</v>
+      </c>
+      <c r="B62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f>_xlfn.CONCAT(C62,": ", B62)</f>
+        <v>STREET_NAME: replacing šćčž to scz</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="1"/>
+        <v>'4115': 'STREET_NAME: replacing šćčž to scz',</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="17">
+        <v>4201</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f>_xlfn.CONCAT(C63,": ", B63)</f>
+        <v>HOUSE_NUMBER: Missing Data</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="K63">
+        <v>0.01</v>
+      </c>
+      <c r="M63" t="str">
         <f t="shared" si="1"/>
         <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="17">
+        <v>4201</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f t="shared" ref="D64:D100" si="2">_xlfn.CONCAT(C64,": ", B64)</f>
+        <v>HOUSE_NUMBER: Missing Data</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="K64">
+        <v>0.01</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="1"/>
+        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="17">
         <v>4202</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="3" t="str">
+      <c r="D65" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Unnecessary spaces</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E65" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F65" s="2">
         <v>2</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="K61">
+      <c r="G65" s="2"/>
+      <c r="K65">
         <v>0.01</v>
       </c>
-      <c r="M61" t="str">
+      <c r="M65" t="str">
         <f t="shared" si="1"/>
         <v>'4202': 'HOUSE_NUMBER: Unnecessary spaces',</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="17">
         <v>4203</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="3" t="str">
+      <c r="D66" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G66" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K62">
+      <c r="K66">
         <v>0.01</v>
       </c>
-      <c r="M62" t="str">
+      <c r="M66" t="str">
         <f t="shared" si="1"/>
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="17">
         <v>4203</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B67" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="3" t="str">
+      <c r="D67" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F67" s="2">
         <v>6</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G67" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K63">
+      <c r="K67">
         <v>0.01</v>
       </c>
-      <c r="M63" t="str">
+      <c r="M67" t="str">
         <f t="shared" si="1"/>
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="17">
         <v>4203</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B68" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="3" t="str">
+      <c r="D68" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3">
+      <c r="E68" s="2"/>
+      <c r="F68" s="2">
         <v>34</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K64">
+      <c r="K68">
         <v>0.01</v>
       </c>
-      <c r="M64" t="str">
-        <f t="shared" si="1"/>
+      <c r="M68" t="str">
+        <f t="shared" ref="M68:M82" si="3">_xlfn.CONCAT("'",A68,"': '",D68,"',")</f>
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="17">
         <v>4204</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B69" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="3" t="str">
+      <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: No house number</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="K65">
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="K69">
         <v>0.01</v>
       </c>
-      <c r="M65" t="str">
-        <f t="shared" si="1"/>
+      <c r="M69" t="str">
+        <f t="shared" si="3"/>
         <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="17">
         <v>4204</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B70" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="3" t="str">
+      <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: No house number</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
         <v>34</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="K66">
+      <c r="G70" s="2"/>
+      <c r="K70">
         <v>0.02</v>
       </c>
-      <c r="M66" t="str">
-        <f t="shared" ref="M66:M80" si="3">_xlfn.CONCAT("'",A66,"': '",D66,"',")</f>
+      <c r="M70" t="str">
+        <f t="shared" si="3"/>
         <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="17">
         <v>4205</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="3" t="str">
+      <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: invalid combination</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E71" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="K67">
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="K71">
         <v>0.05</v>
       </c>
-      <c r="M67" t="str">
+      <c r="M71" t="str">
         <f t="shared" si="3"/>
         <v>'4205': 'HOUSE_NUMBER: invalid combination',</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="17">
         <v>4206</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B72" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="3" t="str">
+      <c r="D72" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Leading 0</v>
       </c>
-      <c r="E68" s="5" t="s">
+      <c r="E72" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F72" s="2">
         <v>7</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="K68">
+      <c r="G72" s="2"/>
+      <c r="K72">
         <v>0.03</v>
       </c>
-      <c r="M68" t="str">
+      <c r="M72" t="str">
         <f t="shared" si="3"/>
         <v>'4206': 'HOUSE_NUMBER: Leading 0',</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="17">
         <v>4207</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C73" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="3" t="str">
+      <c r="D73" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Spacing between components</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="K69">
+      <c r="G73" s="2"/>
+      <c r="K73">
         <v>0.01</v>
       </c>
-      <c r="M69" t="str">
+      <c r="M73" t="str">
         <f t="shared" si="3"/>
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="17">
         <v>4207</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C74" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="3" t="str">
+      <c r="D74" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Spacing between components</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="K70">
+      <c r="G74" s="2"/>
+      <c r="K74">
         <v>0.01</v>
       </c>
-      <c r="M70" t="str">
+      <c r="M74" t="str">
         <f t="shared" si="3"/>
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="17">
         <v>4207</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C75" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="3" t="str">
+      <c r="D75" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Spacing between components</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="K71">
+      <c r="G75" s="2"/>
+      <c r="K75">
         <v>0.02</v>
       </c>
-      <c r="M71" t="str">
+      <c r="M75" t="str">
         <f t="shared" si="3"/>
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="17">
         <v>4208</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="3" t="str">
+      <c r="D76" s="2" t="str">
         <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Contains roman numerals</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F76" s="2">
         <v>9</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="K72">
+      <c r="G76" s="2"/>
+      <c r="K76">
         <v>0.01</v>
       </c>
-      <c r="M72" t="str">
+      <c r="M76" t="str">
         <f t="shared" si="3"/>
         <v>'4208': 'HOUSE_NUMBER: Contains roman numerals',</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="19">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="18">
         <v>4209</v>
       </c>
-      <c r="B73" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B77" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="3" t="str">
-        <f>_xlfn.CONCAT(C73,": ", B73)</f>
+      <c r="D77" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Ends with full stop</v>
       </c>
-      <c r="K73">
+      <c r="K77">
         <v>0.05</v>
       </c>
-      <c r="M73" t="str">
+      <c r="M77" t="str">
         <f t="shared" si="3"/>
         <v>'4209': 'HOUSE_NUMBER: Ends with full stop',</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="19">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="18">
         <v>4210</v>
       </c>
-      <c r="B74" t="s">
-        <v>266</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="3" t="str">
-        <f t="shared" ref="D74:D94" si="4">_xlfn.CONCAT(C74,": ", B74)</f>
+      <c r="D78" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: More than one number present</v>
       </c>
-      <c r="K74">
+      <c r="K78">
         <v>0.01</v>
       </c>
-      <c r="M74" t="str">
+      <c r="M78" t="str">
         <f t="shared" si="3"/>
         <v>'4210': 'HOUSE_NUMBER: More than one number present',</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A75" s="19">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="18">
         <v>4211</v>
       </c>
-      <c r="B75" t="s">
-        <v>267</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D79" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: Does not start with digit</v>
       </c>
-      <c r="K75">
+      <c r="K79">
         <v>0.03</v>
       </c>
-      <c r="M75" t="str">
+      <c r="M79" t="str">
         <f t="shared" si="3"/>
         <v>'4211': 'HOUSE_NUMBER: Does not start with digit',</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="19">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="18">
         <v>4212</v>
       </c>
-      <c r="B76" t="s">
-        <v>268</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B80" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D80" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>HOUSE_NUMBER: More than 4 digits</v>
       </c>
-      <c r="M76" t="str">
+      <c r="M80" t="str">
         <f t="shared" si="3"/>
         <v>'4212': 'HOUSE_NUMBER: More than 4 digits',</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+    <row r="81" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A81" s="17">
         <v>4301</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D81" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>ZIPCODE: Missing Data</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E81" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G81" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M77" t="str">
+      <c r="M81" t="str">
         <f t="shared" si="3"/>
         <v>'4301': 'ZIPCODE: Missing Data',</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="17">
         <v>4302</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D82" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>ZIPCODE: Unnecessary Spaces</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E82" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F82" s="2">
         <v>1000</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G82" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M78" t="str">
+      <c r="M82" t="str">
         <f t="shared" si="3"/>
         <v>'4302': 'ZIPCODE: Unnecessary Spaces',</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+    <row r="83" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A83" s="17">
         <v>4303</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D83" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>ZIPCODE: invalid characters</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E83" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F83" s="2">
         <v>1000</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M79" t="str">
-        <f t="shared" si="3"/>
-        <v>'4303': 'ZIPCODE: invalid characters',</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="17">
         <v>4304</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D84" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>ZIPCODE: Less than 4</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E84" s="2">
         <v>231</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G80" s="3"/>
-      <c r="M80" t="str">
-        <f t="shared" si="3"/>
-        <v>'4304': 'ZIPCODE: Less than 4',</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="17">
         <v>4305</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B85" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D85" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>ZIPCODE: More than 4</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E85" s="2">
         <v>12098</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G81" s="3"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="17">
         <v>4306</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D86" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>ZIPCODE: Contains Letters</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F86" s="2">
         <v>1000</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G86" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="17">
         <v>4307</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C87" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D87" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>ZIPCODE: Invalid Value</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E87" s="2">
         <v>1000</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="3"/>
-    </row>
-    <row r="84" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A88" s="17">
         <v>4401</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C88" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D84" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D88" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>POSTAL_CITY: Missing Data</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E88" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F88" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G88" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="17">
         <v>4402</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C89" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D85" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D89" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>POSTAL_CITY: Unnecessary Spaces</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="E89" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F89" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G89" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="20">
+        <v>4403</v>
+      </c>
+      <c r="B90" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C90" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D86" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D90" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>POSTAL_CITY: Invalid characters</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="21">
+        <v>4403</v>
+      </c>
+      <c r="B91" t="s">
         <v>152</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C91" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D87" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D91" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>POSTAL_CITY: Invalid characters</v>
       </c>
-      <c r="E87" t="s">
-        <v>259</v>
-      </c>
-      <c r="F87" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="E91" t="s">
+        <v>254</v>
+      </c>
+      <c r="F91" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="21">
+        <v>4403</v>
+      </c>
+      <c r="B92" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C92" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D88" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D92" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>POSTAL_CITY: Invalid characters</v>
       </c>
-      <c r="E88" t="s">
-        <v>255</v>
-      </c>
-      <c r="F88" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="E92" t="s">
+        <v>250</v>
+      </c>
+      <c r="F92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="19">
+        <v>4404</v>
+      </c>
+      <c r="B93" t="s">
         <v>69</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C93" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D89" s="3" t="str">
-        <f t="shared" si="4"/>
+      <c r="D93" s="2" t="str">
+        <f t="shared" si="2"/>
         <v>POSTAL_CITY: Formatting Issue</v>
       </c>
-      <c r="E89" t="s">
-        <v>269</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="E93" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="20">
+        <v>4405</v>
+      </c>
+      <c r="B94" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Contains digits</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="20">
+        <v>4406</v>
+      </c>
+      <c r="B95" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Invalid abbreviations</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="20">
+        <v>4407</v>
+      </c>
+      <c r="B96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Duplicates</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="21">
+        <v>4407</v>
+      </c>
+      <c r="B97" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Formatting Issue</v>
+      </c>
+      <c r="E97" t="s">
+        <v>252</v>
+      </c>
+      <c r="F97" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B90" t="s">
-        <v>240</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="G97" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="21">
+        <v>4407</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D90" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>POSTAL_CITY: Contains digits</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B91" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="D98" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: Formatting Issue</v>
+      </c>
+      <c r="E98" t="s">
+        <v>248</v>
+      </c>
+      <c r="F98" t="s">
+        <v>247</v>
+      </c>
+      <c r="G98" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="17"/>
+      <c r="B99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>NONE: Duplicate Row</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D91" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>POSTAL_CITY: Invalid abbreviations</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="B92" t="s">
-        <v>70</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D92" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>POSTAL_CITY: Duplicates</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B93" t="s">
-        <v>253</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D93" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>POSTAL_CITY: Duplicates because of capital/small letters</v>
-      </c>
-      <c r="E93" t="s">
-        <v>257</v>
-      </c>
-      <c r="F93" t="s">
-        <v>256</v>
-      </c>
-      <c r="G93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="B94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" s="3" t="str">
-        <f t="shared" si="4"/>
-        <v>POSTAL_CITY: Duplicates because of capital/small letters</v>
-      </c>
-      <c r="E94" t="s">
-        <v>252</v>
-      </c>
-      <c r="F94" t="s">
-        <v>251</v>
-      </c>
-      <c r="G94" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D95" s="3" t="str">
-        <f>_xlfn.CONCAT(C95,": ", B95)</f>
-        <v>NONE: Duplicate Row</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="3"/>
-    </row>
-    <row r="100" spans="1:1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+      <c r="D100" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>POSTAL_CITY: replacing šćčž to scz</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J96" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J96">
-      <sortCondition ref="A1:A96"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E20" r:id="rId1" display="example@gmial.com" xr:uid="{26614BCF-17CC-CC4B-8956-8F6930E60309}"/>
-    <hyperlink ref="F20" r:id="rId2" display="example@gmail.com" xr:uid="{8748665C-4957-DF46-BCAE-78DDC2747FA2}"/>
-    <hyperlink ref="F16" r:id="rId3" xr:uid="{C97D70EF-2237-5345-A311-3AAA5FB2604F}"/>
-    <hyperlink ref="E17" r:id="rId4" xr:uid="{5452BAFC-13C2-3F47-9997-9E87936810D4}"/>
-    <hyperlink ref="F17" r:id="rId5" xr:uid="{26E7AAAB-28B9-3346-B8F0-69E39759EBA8}"/>
+    <hyperlink ref="E23" r:id="rId1" display="example@gmial.com" xr:uid="{26614BCF-17CC-CC4B-8956-8F6930E60309}"/>
+    <hyperlink ref="F23" r:id="rId2" display="example@gmail.com" xr:uid="{8748665C-4957-DF46-BCAE-78DDC2747FA2}"/>
+    <hyperlink ref="F19" r:id="rId3" xr:uid="{C97D70EF-2237-5345-A311-3AAA5FB2604F}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{5452BAFC-13C2-3F47-9997-9E87936810D4}"/>
+    <hyperlink ref="F20" r:id="rId5" xr:uid="{26E7AAAB-28B9-3346-B8F0-69E39759EBA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -4371,528 +4505,528 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1101</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1102</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>1103</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1104</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>1105</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>1106</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>1201</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>1202</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>1203</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>1204</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>2101</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>2102</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>2103</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>2104</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>2105</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>2106</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>2107</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>2108</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>3101</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>3102</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>3103</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>3104</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>3105</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>3106</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>3107</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>3108</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>4101</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>4102</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>4103</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>4104</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>4104</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>4104</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>4105</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>4106</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>4107</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>4108</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>4109</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>4110</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>4111</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>4112</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>4113</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>4113</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>4113</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>4113</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>4201</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>4202</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>4203</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>4203</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>4203</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>4204</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>4204</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>4205</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>4206</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>4207</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>4208</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>4301</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>4302</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>4303</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>4304</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>4305</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>4306</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>4307</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>4308</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>4401</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>4402</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/raw_data/TG_errors.xlsx
+++ b/src/raw_data/TG_errors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjasagrabnar/Desktop/magistrska/customer_data_cleanup/src/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF951D98-F22F-D74D-8E6C-BE1C2DC69BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE13C2B7-1134-274F-B933-AFBF837795DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
+    <workbookView xWindow="140" yWindow="1020" windowWidth="16840" windowHeight="21080" xr2:uid="{AE53E973-26AC-D344-B98A-BA50389E6E12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="265">
   <si>
     <t>Error_ID</t>
   </si>
@@ -767,9 +767,6 @@
     <t>Starts with number</t>
   </si>
   <si>
-    <t>More than 2 commas</t>
-  </si>
-  <si>
     <t>Cannot contain digit at the end</t>
   </si>
   <si>
@@ -809,21 +806,12 @@
     <t>GORIŠNICA</t>
   </si>
   <si>
-    <t>GORIšNICA, GORIŠNICA</t>
-  </si>
-  <si>
     <t>DOMŽALE</t>
   </si>
   <si>
     <t>DOM\@ALE</t>
   </si>
   <si>
-    <t>AJDOVŠČINA</t>
-  </si>
-  <si>
-    <t>AJDOVščINA, AJDOVŠČINA</t>
-  </si>
-  <si>
     <t>ŠTORE</t>
   </si>
   <si>
@@ -867,6 +855,9 @@
   </si>
   <si>
     <t>4408</t>
+  </si>
+  <si>
+    <t>1206</t>
   </si>
 </sst>
 </file>
@@ -986,7 +977,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1029,9 +1020,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -1093,10 +1081,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}" name="Table1" displayName="Table1" ref="A1:K100" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:K100" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K99">
-    <sortCondition ref="A1:A99"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}" name="Table1" displayName="Table1" ref="A1:K97" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:K97" xr:uid="{B284FB57-23FC-3F49-8756-084DBE39D068}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K97">
+    <sortCondition ref="A1:A97"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{2381EC1C-CAEF-2B40-A59E-3E318B240A84}" name="error_id" dataDxfId="0"/>
@@ -1434,16 +1422,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25534D8-8326-A74F-A2E5-C7F409A5D2ED}">
-  <dimension ref="A1:M102"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="21" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1640625" customWidth="1"/>
@@ -1467,7 +1455,7 @@
         <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1531,7 +1519,7 @@
         <v>91</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f t="shared" ref="D3:D61" si="0">_xlfn.CONCAT(C3,": ", B3)</f>
+        <f>_xlfn.CONCAT(C3,": ", B3)</f>
         <v>NAME: Unnecessary Spaces</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1547,7 +1535,7 @@
         <v>0.05</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M67" si="1">_xlfn.CONCAT("'",A3,"': '",D3,"',")</f>
+        <f t="shared" ref="M3:M66" si="0">_xlfn.CONCAT("'",A3,"': '",D3,"',")</f>
         <v>'1102': 'NAME: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -1562,7 +1550,7 @@
         <v>91</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C4,": ", B4)</f>
         <v>NAME: Invalid Characters</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -1578,7 +1566,7 @@
         <v>0.02</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1103': 'NAME: Invalid Characters',</v>
       </c>
     </row>
@@ -1593,7 +1581,7 @@
         <v>91</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C5,": ", B5)</f>
         <v>NAME: Formatting Issue</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1607,7 +1595,7 @@
         <v>0.03</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1104': 'NAME: Formatting Issue',</v>
       </c>
     </row>
@@ -1622,7 +1610,7 @@
         <v>91</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C6,": ", B6)</f>
         <v>NAME: Duplicates</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1638,7 +1626,7 @@
         <v>0.05</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1105': 'NAME: Duplicates',</v>
       </c>
     </row>
@@ -1653,7 +1641,7 @@
         <v>91</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C7,": ", B7)</f>
         <v>NAME: Two names in one field</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1665,7 +1653,7 @@
         <v>0.02</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1106': 'NAME: Two names in one field',</v>
       </c>
     </row>
@@ -1674,39 +1662,39 @@
         <v>1107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C8,": ", B8)</f>
         <v>NAME: Initials present</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1107': 'NAME: Initials present',</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>1108</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C9,": ", B9)</f>
         <v>NAME: replacing šćčž to scz</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1108': 'NAME: replacing šćčž to scz',</v>
       </c>
     </row>
@@ -1721,7 +1709,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C10,": ", B10)</f>
         <v>SURNAME: Missing Data</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -1735,7 +1723,7 @@
         <v>0.01</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1201': 'SURNAME: Missing Data',</v>
       </c>
     </row>
@@ -1750,7 +1738,7 @@
         <v>95</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C11,": ", B11)</f>
         <v>SURNAME: Unnecessary Spaces</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1766,7 +1754,7 @@
         <v>0.01</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1202': 'SURNAME: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -1781,7 +1769,7 @@
         <v>95</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C12,": ", B12)</f>
         <v>SURNAME: Invalid Characters</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1797,7 +1785,7 @@
         <v>0.05</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1203': 'SURNAME: Invalid Characters',</v>
       </c>
     </row>
@@ -1812,18 +1800,18 @@
         <v>95</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C13,": ", B13)</f>
         <v>SURNAME: Formatting Issue</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="2"/>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1204': 'SURNAME: Formatting Issue',</v>
       </c>
     </row>
@@ -1838,7 +1826,7 @@
         <v>95</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C14,": ", B14)</f>
         <v>SURNAME: Duplicates</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1854,27 +1842,27 @@
         <v>0.05</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'1205': 'SURNAME: Duplicates',</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>1208</v>
+      <c r="A15" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C15,": ", B15)</f>
         <v>SURNAME: replacing šćčž to scz</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
-        <v>'1208': 'SURNAME: replacing šćčž to scz',</v>
+        <f t="shared" si="0"/>
+        <v>'1206': 'SURNAME: replacing šćčž to scz',</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1888,7 +1876,7 @@
         <v>101</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C16,": ", B16)</f>
         <v>EMAIL: Missing Data</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1902,7 +1890,7 @@
         <v>0.01</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
@@ -1917,7 +1905,7 @@
         <v>101</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C17,": ", B17)</f>
         <v>EMAIL: Missing Data</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1930,7 +1918,7 @@
         <v>85</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2101': 'EMAIL: Missing Data',</v>
       </c>
     </row>
@@ -1945,7 +1933,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C18,": ", B18)</f>
         <v>EMAIL: Unnecessary Spaces</v>
       </c>
       <c r="E18" s="3"/>
@@ -1955,7 +1943,7 @@
         <v>0.01</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2102': 'EMAIL: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -1970,7 +1958,7 @@
         <v>101</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C19,": ", B19)</f>
         <v>EMAIL: Invalid Characters</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -1986,7 +1974,7 @@
         <v>0.01</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2103': 'EMAIL: Invalid Characters',</v>
       </c>
     </row>
@@ -2001,7 +1989,7 @@
         <v>101</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C20,": ", B20)</f>
         <v>EMAIL: Invalid Characters</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2015,7 +2003,7 @@
         <v>0.01</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2103': 'EMAIL: Invalid Characters',</v>
       </c>
     </row>
@@ -2030,7 +2018,7 @@
         <v>101</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C21,": ", B21)</f>
         <v>EMAIL: Formatting Issue</v>
       </c>
       <c r="E21" s="6" t="s">
@@ -2044,7 +2032,7 @@
         <v>0.01</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2104': 'EMAIL: Formatting Issue',</v>
       </c>
     </row>
@@ -2053,13 +2041,13 @@
         <v>2105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C22,": ", B22)</f>
         <v>EMAIL: Possibly Two Emails</v>
       </c>
       <c r="E22" s="8" t="s">
@@ -2073,7 +2061,7 @@
         <v>0.01</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2105': 'EMAIL: Possibly Two Emails',</v>
       </c>
     </row>
@@ -2082,13 +2070,13 @@
         <v>2106</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C23,": ", B23)</f>
         <v>EMAIL: Possibly Invalid domain</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -2102,7 +2090,7 @@
         <v>0.01</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'2106': 'EMAIL: Possibly Invalid domain',</v>
       </c>
     </row>
@@ -2117,7 +2105,7 @@
         <v>104</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C24,": ", B24)</f>
         <v>PHONE: Missing Data</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -2133,7 +2121,7 @@
         <v>0.01</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'3101': 'PHONE: Missing Data',</v>
       </c>
     </row>
@@ -2148,7 +2136,7 @@
         <v>104</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C25,": ", B25)</f>
         <v>PHONE: Missing Data</v>
       </c>
       <c r="E25" s="12" t="s">
@@ -2164,7 +2152,7 @@
         <v>0.01</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'3101': 'PHONE: Missing Data',</v>
       </c>
     </row>
@@ -2179,14 +2167,14 @@
         <v>104</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C26,": ", B26)</f>
         <v>PHONE: Unnecessary Spaces</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="M26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'3102': 'PHONE: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -2201,7 +2189,7 @@
         <v>104</v>
       </c>
       <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C27,": ", B27)</f>
         <v>PHONE: Invalid characters</v>
       </c>
       <c r="E27" s="6" t="s">
@@ -2215,7 +2203,7 @@
         <v>0.01</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'3103': 'PHONE: Invalid characters',</v>
       </c>
     </row>
@@ -2230,7 +2218,7 @@
         <v>104</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C28,": ", B28)</f>
         <v>PHONE: Formatting Issue</v>
       </c>
       <c r="E28" s="11" t="s">
@@ -2244,7 +2232,7 @@
         <v>0.01</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'3104': 'PHONE: Formatting Issue',</v>
       </c>
     </row>
@@ -2259,7 +2247,7 @@
         <v>104</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C29,": ", B29)</f>
         <v>PHONE: Too many digits</v>
       </c>
       <c r="E29" s="6" t="s">
@@ -2271,7 +2259,7 @@
         <v>0.01</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'3105': 'PHONE: Too many digits',</v>
       </c>
     </row>
@@ -2286,14 +2274,14 @@
         <v>104</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C30,": ", B30)</f>
         <v>PHONE: Too little digits</v>
       </c>
       <c r="K30">
         <v>0.03</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'3106': 'PHONE: Too little digits',</v>
       </c>
     </row>
@@ -2308,7 +2296,7 @@
         <v>104</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C31,": ", B31)</f>
         <v>PHONE: Two phone numbers</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -2320,7 +2308,7 @@
         <v>0.02</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'3107': 'PHONE: Two phone numbers',</v>
       </c>
     </row>
@@ -2335,7 +2323,7 @@
         <v>104</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C32,": ", B32)</f>
         <v>PHONE: Different country format</v>
       </c>
       <c r="E32" s="12" t="s">
@@ -2349,7 +2337,7 @@
         <v>0.05</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'3108': 'PHONE: Different country format',</v>
       </c>
     </row>
@@ -2364,7 +2352,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C33,": ", B33)</f>
         <v>STREET_NAME: Missing Data</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -2378,7 +2366,7 @@
         <v>0.01</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
@@ -2393,7 +2381,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C34,": ", B34)</f>
         <v>STREET_NAME: Missing Data</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -2407,7 +2395,7 @@
         <v>0.03</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4101': 'STREET_NAME: Missing Data',</v>
       </c>
     </row>
@@ -2422,7 +2410,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C35,": ", B35)</f>
         <v>STREET_NAME: Unnecessary Spaces</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2438,7 +2426,7 @@
         <v>0.01</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4102': 'STREET_NAME: Unnecessary Spaces',</v>
       </c>
     </row>
@@ -2453,7 +2441,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C36,": ", B36)</f>
         <v>STREET_NAME: Invalid characters</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -2467,7 +2455,7 @@
         <v>0.01</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
@@ -2482,17 +2470,17 @@
         <v>11</v>
       </c>
       <c r="D37" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C37,": ", B37)</f>
         <v>STREET_NAME: Invalid characters</v>
       </c>
       <c r="E37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K37">
         <v>0.01</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
@@ -2507,17 +2495,17 @@
         <v>11</v>
       </c>
       <c r="D38" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C38,": ", B38)</f>
         <v>STREET_NAME: Invalid characters</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K38">
         <v>0.01</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
@@ -2532,17 +2520,17 @@
         <v>11</v>
       </c>
       <c r="D39" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C39,": ", B39)</f>
         <v>STREET_NAME: Invalid characters</v>
       </c>
       <c r="E39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K39">
         <v>0.05</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4103': 'STREET_NAME: Invalid characters',</v>
       </c>
     </row>
@@ -2557,20 +2545,20 @@
         <v>11</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C40,": ", B40)</f>
         <v>STREET_NAME: Formatting Issue</v>
       </c>
       <c r="E40" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K40">
         <v>0.05</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4104': 'STREET_NAME: Formatting Issue',</v>
       </c>
     </row>
@@ -2585,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C41,": ", B41)</f>
         <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -2601,7 +2589,7 @@
         <v>0.01</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
@@ -2616,7 +2604,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C42,": ", B42)</f>
         <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -2628,7 +2616,7 @@
         <v>0.01</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
@@ -2643,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C43,": ", B43)</f>
         <v>STREET_NAME: Contains house number</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -2659,7 +2647,7 @@
         <v>0.05</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4105': 'STREET_NAME: Contains house number',</v>
       </c>
     </row>
@@ -2674,7 +2662,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C44,": ", B44)</f>
         <v>STREET_NAME: Contains variation of BŠ</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -2690,7 +2678,7 @@
         <v>0.03</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
       </c>
     </row>
@@ -2705,7 +2693,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C45,": ", B45)</f>
         <v>STREET_NAME: Contains variation of BŠ</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -2721,7 +2709,7 @@
         <v>0.05</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4106': 'STREET_NAME: Contains variation of BŠ',</v>
       </c>
     </row>
@@ -2736,7 +2724,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C46,": ", B46)</f>
         <v>STREET_NAME: Invalid abbreviations</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -2752,7 +2740,7 @@
         <v>0.05</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4107': 'STREET_NAME: Invalid abbreviations',</v>
       </c>
     </row>
@@ -2767,7 +2755,7 @@
         <v>11</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C47,": ", B47)</f>
         <v>STREET_NAME: No space after full stop</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2781,7 +2769,7 @@
         <v>0.03</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4108': 'STREET_NAME: No space after full stop',</v>
       </c>
     </row>
@@ -2796,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C48,": ", B48)</f>
         <v>STREET_NAME: Only numbers</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -2808,7 +2796,7 @@
         <v>0.01</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4109': 'STREET_NAME: Only numbers',</v>
       </c>
     </row>
@@ -2823,7 +2811,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C49,": ", B49)</f>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2837,7 +2825,7 @@
         <v>0.01</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2852,7 +2840,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C50,": ", B50)</f>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -2866,7 +2854,7 @@
         <v>0.01</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2881,7 +2869,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C51,": ", B51)</f>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -2897,7 +2885,7 @@
         <v>0.01</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2912,7 +2900,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C52,": ", B52)</f>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -2928,7 +2916,7 @@
         <v>0.01</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2943,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C53,": ", B53)</f>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -2959,7 +2947,7 @@
         <v>0.01</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -2974,7 +2962,7 @@
         <v>11</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C54,": ", B54)</f>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -2990,7 +2978,7 @@
         <v>0.01</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -3005,7 +2993,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C55,": ", B55)</f>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -3021,7 +3009,7 @@
         <v>0.01</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -3036,7 +3024,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C56,": ", B56)</f>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -3052,7 +3040,7 @@
         <v>0.01</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -3067,17 +3055,17 @@
         <v>11</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C57,": ", B57)</f>
         <v>STREET_NAME: Duplicates</v>
       </c>
       <c r="F57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K57">
         <v>0.01</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4110': 'STREET_NAME: Duplicates',</v>
       </c>
     </row>
@@ -3092,7 +3080,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(C58,": ", B58)</f>
         <v>STREET_NAME: Starts with number</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -3106,7 +3094,7 @@
         <v>0.01</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4111': 'STREET_NAME: Starts with number',</v>
       </c>
     </row>
@@ -3121,41 +3109,38 @@
         <v>11</v>
       </c>
       <c r="D59" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: More than 2 commas</v>
-      </c>
-      <c r="E59" s="2"/>
+        <f>_xlfn.CONCAT(C59,": ", B59)</f>
+        <v>STREET_NAME: Cannot contain digit at the end</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="K59">
         <v>0.01</v>
       </c>
-      <c r="M59" t="str">
-        <f t="shared" si="1"/>
-        <v>'4112': 'STREET_NAME: More than 2 commas',</v>
-      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>4113</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>235</v>
+      <c r="B60" t="s">
+        <v>255</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Cannot contain digit at the end</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+        <f>_xlfn.CONCAT(C60,": ", B60)</f>
+        <v>STREET_NAME: Invalid digit in Street</v>
+      </c>
       <c r="K60">
         <v>0.01</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="0"/>
+        <v>'4113': 'STREET_NAME: Invalid digit in Street',</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -3163,40 +3148,47 @@
         <v>4114</v>
       </c>
       <c r="B61" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>STREET_NAME: Invalid digit in Street</v>
-      </c>
-      <c r="K61">
-        <v>0.01</v>
+        <f>_xlfn.CONCAT(C61,": ", B61)</f>
+        <v>STREET_NAME: replacing šćčž to scz</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" si="1"/>
-        <v>'4114': 'STREET_NAME: Invalid digit in Street',</v>
+        <f t="shared" si="0"/>
+        <v>'4114': 'STREET_NAME: replacing šćčž to scz',</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>4115</v>
-      </c>
-      <c r="B62" t="s">
-        <v>266</v>
+      <c r="A62" s="17">
+        <v>4201</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D62" s="2" t="str">
         <f>_xlfn.CONCAT(C62,": ", B62)</f>
-        <v>STREET_NAME: replacing šćčž to scz</v>
+        <v>HOUSE_NUMBER: Missing Data</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="K62">
+        <v>0.01</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" si="1"/>
-        <v>'4115': 'STREET_NAME: replacing šćčž to scz',</v>
+        <f t="shared" si="0"/>
+        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -3214,7 +3206,7 @@
         <v>HOUSE_NUMBER: Missing Data</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>31</v>
@@ -3224,66 +3216,68 @@
         <v>0.01</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>4</v>
+        <v>128</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="2" t="str">
-        <f t="shared" ref="D64:D100" si="2">_xlfn.CONCAT(C64,": ", B64)</f>
-        <v>HOUSE_NUMBER: Missing Data</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>31</v>
+        <f>_xlfn.CONCAT(C64,": ", B64)</f>
+        <v>HOUSE_NUMBER: Unnecessary spaces</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2</v>
       </c>
       <c r="G64" s="2"/>
       <c r="K64">
         <v>0.01</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" si="1"/>
-        <v>'4201': 'HOUSE_NUMBER: Missing Data',</v>
+        <f t="shared" si="0"/>
+        <v>'4202': 'HOUSE_NUMBER: Unnecessary spaces',</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D65" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: Unnecessary spaces</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F65" s="2">
-        <v>2</v>
-      </c>
-      <c r="G65" s="2"/>
+        <f>_xlfn.CONCAT(C65,": ", B65)</f>
+        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="K65">
         <v>0.01</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" si="1"/>
-        <v>'4202': 'HOUSE_NUMBER: Unnecessary spaces',</v>
+        <f t="shared" si="0"/>
+        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -3297,23 +3291,23 @@
         <v>5</v>
       </c>
       <c r="D66" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(C66,": ", B66)</f>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
+      </c>
+      <c r="F66" s="2">
+        <v>6</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K66">
         <v>0.01</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
@@ -3328,14 +3322,12 @@
         <v>5</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(C67,": ", B67)</f>
         <v>HOUSE_NUMBER: Contains variation of BŠ</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="E67" s="2"/>
       <c r="F67" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>49</v>
@@ -3344,37 +3336,35 @@
         <v>0.01</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M67:M81" si="1">_xlfn.CONCAT("'",A67,"': '",D67,"',")</f>
         <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: Contains variation of BŠ</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2">
-        <v>34</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>49</v>
-      </c>
+        <f>_xlfn.CONCAT(C68,": ", B68)</f>
+        <v>HOUSE_NUMBER: No house number</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
       <c r="K68">
         <v>0.01</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" ref="M68:M82" si="3">_xlfn.CONCAT("'",A68,"': '",D68,"',")</f>
-        <v>'4203': 'HOUSE_NUMBER: Contains variation of BŠ',</v>
+        <f t="shared" si="1"/>
+        <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -3382,85 +3372,87 @@
         <v>4204</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(C69,": ", B69)</f>
         <v>HOUSE_NUMBER: No house number</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2">
+        <v>34</v>
+      </c>
       <c r="G69" s="2"/>
       <c r="K69">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>'4204': 'HOUSE_NUMBER: No house number',</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
-        <v>4204</v>
+        <v>4205</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: No house number</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2">
-        <v>34</v>
-      </c>
+        <f>_xlfn.CONCAT(C70,": ", B70)</f>
+        <v>HOUSE_NUMBER: invalid combination</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="K70">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" si="3"/>
-        <v>'4204': 'HOUSE_NUMBER: No house number',</v>
+        <f t="shared" si="1"/>
+        <v>'4205': 'HOUSE_NUMBER: invalid combination',</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: invalid combination</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="2"/>
+        <f>_xlfn.CONCAT(C71,": ", B71)</f>
+        <v>HOUSE_NUMBER: Leading 0</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="2">
+        <v>7</v>
+      </c>
       <c r="G71" s="2"/>
       <c r="K71">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" si="3"/>
-        <v>'4205': 'HOUSE_NUMBER: invalid combination',</v>
+        <f t="shared" si="1"/>
+        <v>'4206': 'HOUSE_NUMBER: Leading 0',</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>237</v>
@@ -3469,22 +3461,22 @@
         <v>5</v>
       </c>
       <c r="D72" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: Leading 0</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F72" s="2">
-        <v>7</v>
+        <f>_xlfn.CONCAT(C72,": ", B72)</f>
+        <v>HOUSE_NUMBER: Spacing between components</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="G72" s="2"/>
       <c r="K72">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" si="3"/>
-        <v>'4206': 'HOUSE_NUMBER: Leading 0',</v>
+        <f t="shared" si="1"/>
+        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -3492,17 +3484,17 @@
         <v>4207</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(C73,": ", B73)</f>
         <v>HOUSE_NUMBER: Spacing between components</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>54</v>
@@ -3512,7 +3504,7 @@
         <v>0.01</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
@@ -3521,33 +3513,33 @@
         <v>4207</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(C74,": ", B74)</f>
         <v>HOUSE_NUMBER: Spacing between components</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G74" s="2"/>
       <c r="K74">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
-        <v>4207</v>
+        <v>4208</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>238</v>
@@ -3556,234 +3548,227 @@
         <v>5</v>
       </c>
       <c r="D75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: Spacing between components</v>
+        <f>_xlfn.CONCAT(C75,": ", B75)</f>
+        <v>HOUSE_NUMBER: Contains roman numerals</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F75" s="2">
+        <v>9</v>
       </c>
       <c r="G75" s="2"/>
       <c r="K75">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" si="3"/>
-        <v>'4207': 'HOUSE_NUMBER: Spacing between components',</v>
+        <f t="shared" si="1"/>
+        <v>'4208': 'HOUSE_NUMBER: Contains roman numerals',</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="17">
-        <v>4208</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>239</v>
+      <c r="A76">
+        <v>4209</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>256</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D76" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: Contains roman numerals</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F76" s="2">
-        <v>9</v>
-      </c>
-      <c r="G76" s="2"/>
+        <f>_xlfn.CONCAT(C76,": ", B76)</f>
+        <v>HOUSE_NUMBER: Ends with full stop</v>
+      </c>
       <c r="K76">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" si="3"/>
-        <v>'4208': 'HOUSE_NUMBER: Contains roman numerals',</v>
+        <f t="shared" si="1"/>
+        <v>'4209': 'HOUSE_NUMBER: Ends with full stop',</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="18">
-        <v>4209</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>260</v>
+      <c r="A77">
+        <v>4210</v>
+      </c>
+      <c r="B77" t="s">
+        <v>257</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D77" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: Ends with full stop</v>
+        <f>_xlfn.CONCAT(C77,": ", B77)</f>
+        <v>HOUSE_NUMBER: More than one number present</v>
       </c>
       <c r="K77">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" si="3"/>
-        <v>'4209': 'HOUSE_NUMBER: Ends with full stop',</v>
+        <f t="shared" si="1"/>
+        <v>'4210': 'HOUSE_NUMBER: More than one number present',</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="18">
-        <v>4210</v>
+      <c r="A78">
+        <v>4211</v>
       </c>
       <c r="B78" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D78" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: More than one number present</v>
+        <f>_xlfn.CONCAT(C78,": ", B78)</f>
+        <v>HOUSE_NUMBER: Does not start with digit</v>
       </c>
       <c r="K78">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" si="3"/>
-        <v>'4210': 'HOUSE_NUMBER: More than one number present',</v>
+        <f t="shared" si="1"/>
+        <v>'4211': 'HOUSE_NUMBER: Does not start with digit',</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="18">
-        <v>4211</v>
+      <c r="A79">
+        <v>4212</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: Does not start with digit</v>
-      </c>
-      <c r="K79">
-        <v>0.03</v>
+        <f>_xlfn.CONCAT(C79,": ", B79)</f>
+        <v>HOUSE_NUMBER: More than 4 digits</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" si="3"/>
-        <v>'4211': 'HOUSE_NUMBER: Does not start with digit',</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="18">
-        <v>4212</v>
-      </c>
-      <c r="B80" t="s">
-        <v>263</v>
+        <f t="shared" si="1"/>
+        <v>'4212': 'HOUSE_NUMBER: More than 4 digits',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A80" s="17">
+        <v>4301</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>HOUSE_NUMBER: More than 4 digits</v>
+        <f>_xlfn.CONCAT(C80,": ", B80)</f>
+        <v>ZIPCODE: Missing Data</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" si="3"/>
-        <v>'4212': 'HOUSE_NUMBER: More than 4 digits',</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>'4301': 'ZIPCODE: Missing Data',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="17">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ZIPCODE: Missing Data</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>31</v>
+        <f>_xlfn.CONCAT(C81,": ", B81)</f>
+        <v>ZIPCODE: Unnecessary Spaces</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1000</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" si="3"/>
-        <v>'4301': 'ZIPCODE: Missing Data',</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>'4302': 'ZIPCODE: Unnecessary Spaces',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="17">
-        <v>4302</v>
+        <v>4303</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ZIPCODE: Unnecessary Spaces</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>114</v>
+        <f>_xlfn.CONCAT(C82,": ", B82)</f>
+        <v>ZIPCODE: invalid characters</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="F82" s="2">
         <v>1000</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M82" t="str">
-        <f t="shared" si="3"/>
-        <v>'4302': 'ZIPCODE: Unnecessary Spaces',</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="17">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ZIPCODE: invalid characters</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F83" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>81</v>
-      </c>
+        <f>_xlfn.CONCAT(C83,": ", B83)</f>
+        <v>ZIPCODE: Less than 4</v>
+      </c>
+      <c r="E83" s="2">
+        <v>231</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" s="2"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="17">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ZIPCODE: Less than 4</v>
+        <f>_xlfn.CONCAT(C84,": ", B84)</f>
+        <v>ZIPCODE: More than 4</v>
       </c>
       <c r="E84" s="2">
-        <v>231</v>
+        <v>12098</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>65</v>
@@ -3792,118 +3777,111 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="17">
-        <v>4305</v>
+        <v>4306</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ZIPCODE: More than 4</v>
-      </c>
-      <c r="E85" s="2">
-        <v>12098</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G85" s="2"/>
+        <f>_xlfn.CONCAT(C85,": ", B85)</f>
+        <v>ZIPCODE: Contains Letters</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="17">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ZIPCODE: Contains Letters</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F86" s="2">
+        <f>_xlfn.CONCAT(C86,": ", B86)</f>
+        <v>ZIPCODE: Invalid Value</v>
+      </c>
+      <c r="E86" s="2">
         <v>1000</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="17">
-        <v>4307</v>
+        <v>4401</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="D87" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>ZIPCODE: Invalid Value</v>
-      </c>
-      <c r="E87" s="2">
-        <v>1000</v>
+        <f>_xlfn.CONCAT(C87,": ", B87)</f>
+        <v>POSTAL_CITY: Missing Data</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="2"/>
-    </row>
-    <row r="88" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="17">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D88" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Missing Data</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>145</v>
+        <f>_xlfn.CONCAT(C88,": ", B88)</f>
+        <v>POSTAL_CITY: Unnecessary Spaces</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="17">
-        <v>4402</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>67</v>
+      <c r="A89" s="19">
+        <v>4403</v>
+      </c>
+      <c r="B89" t="s">
+        <v>152</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Unnecessary Spaces</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>74</v>
+        <f>_xlfn.CONCAT(C89,": ", B89)</f>
+        <v>POSTAL_CITY: Invalid characters</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -3917,12 +3895,18 @@
         <v>99</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(C90,": ", B90)</f>
         <v>POSTAL_CITY: Invalid characters</v>
       </c>
+      <c r="E90" t="s">
+        <v>250</v>
+      </c>
+      <c r="F90" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="21">
+      <c r="A91" s="20">
         <v>4403</v>
       </c>
       <c r="B91" t="s">
@@ -3932,188 +3916,119 @@
         <v>99</v>
       </c>
       <c r="D91" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(C91,": ", B91)</f>
         <v>POSTAL_CITY: Invalid characters</v>
       </c>
       <c r="E91" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="21">
-        <v>4403</v>
+      <c r="A92" s="18">
+        <v>4404</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D92" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Invalid characters</v>
+        <f>_xlfn.CONCAT(C92,": ", B92)</f>
+        <v>POSTAL_CITY: Formatting Issue</v>
       </c>
       <c r="E92" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F92" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Formatting Issue</v>
-      </c>
-      <c r="E93" t="s">
-        <v>264</v>
-      </c>
-      <c r="F93" t="s">
-        <v>247</v>
+        <f>_xlfn.CONCAT(C93,": ", B93)</f>
+        <v>POSTAL_CITY: Contains digits</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A94" s="20">
-        <v>4405</v>
+      <c r="A94" s="19">
+        <v>4406</v>
       </c>
       <c r="B94" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D94" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Contains digits</v>
+        <f>_xlfn.CONCAT(C94,": ", B94)</f>
+        <v>POSTAL_CITY: Invalid abbreviations</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A95" s="20">
-        <v>4406</v>
+      <c r="A95" s="19">
+        <v>4407</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D95" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Invalid abbreviations</v>
+        <f>_xlfn.CONCAT(C95,": ", B95)</f>
+        <v>POSTAL_CITY: Duplicates</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A96" s="20">
-        <v>4407</v>
-      </c>
-      <c r="B96" t="s">
-        <v>70</v>
+      <c r="A96" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Duplicates</v>
+        <f>_xlfn.CONCAT(C96,": ", B96)</f>
+        <v>POSTAL_CITY: replacing šćčž to scz</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="21">
-        <v>4407</v>
-      </c>
-      <c r="B97" t="s">
-        <v>69</v>
+      <c r="A97" s="17"/>
+      <c r="B97" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D97" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Formatting Issue</v>
-      </c>
-      <c r="E97" t="s">
-        <v>252</v>
-      </c>
-      <c r="F97" t="s">
-        <v>251</v>
-      </c>
-      <c r="G97" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="21">
-        <v>4407</v>
-      </c>
-      <c r="B98" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: Formatting Issue</v>
-      </c>
-      <c r="E98" t="s">
-        <v>248</v>
-      </c>
-      <c r="F98" t="s">
-        <v>247</v>
-      </c>
-      <c r="G98" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="17"/>
-      <c r="B99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT(C97,": ", B97)</f>
         <v>NONE: Duplicate Row</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>POSTAL_CITY: replacing šćčž to scz</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A102" s="23" t="s">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="99" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A99" s="22" t="s">
         <v>122</v>
       </c>
     </row>
